--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Realme\Others\Requisition for Mugdho Corporation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\Others\Requisition for Mugdho Corporation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Total=</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Need to Deposit</t>
+  </si>
+  <si>
+    <t>C35(4+128)</t>
+  </si>
+  <si>
+    <t>9 (8/128)</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -534,84 +543,6 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,6 +550,87 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -944,64 +956,64 @@
     <col min="15" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-    </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="23" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44679</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="26" t="s">
+        <v>44699</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1018,9 +1030,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1035,26 +1047,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>8510</v>
       </c>
-      <c r="E8" s="3">
-        <v>10</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>85100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1063,17 +1073,15 @@
       <c r="D9" s="3">
         <v>10390</v>
       </c>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F14" si="1">E9*D9</f>
-        <v>207800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1086,9 +1094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1103,9 +1111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1118,9 +1126,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1135,26 +1143,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="15"/>
+    <row r="14" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>10510</v>
       </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>105100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1169,26 +1175,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="15"/>
+    <row r="16" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3">
         <v>11650</v>
       </c>
-      <c r="E16" s="3">
-        <v>35</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>407750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1203,26 +1208,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="15"/>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>12660</v>
       </c>
-      <c r="E18" s="3">
-        <v>15</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="2">
         <f>E18*D18</f>
-        <v>189900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1233,13 +1236,13 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2">
-        <f t="shared" ref="F19:F24" si="4">E19*D19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="15"/>
+        <f t="shared" ref="F19:F20" si="4">E19*D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1252,9 +1255,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1263,369 +1266,433 @@
       <c r="D21" s="3">
         <v>11840</v>
       </c>
-      <c r="E21" s="3">
-        <v>60</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:F22" si="5">E21*D21</f>
-        <v>710400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="39"/>
+        <f t="shared" ref="F21:F39" si="5">E21*D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3">
         <v>11840</v>
       </c>
-      <c r="E22" s="3">
-        <v>60</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="2">
         <f t="shared" si="5"/>
-        <v>710400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="38">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>20640</v>
+        <v>15690</v>
       </c>
       <c r="E23" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="4"/>
-        <v>206400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="39"/>
+        <f t="shared" si="5"/>
+        <v>125520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>20640</v>
+        <v>15690</v>
       </c>
       <c r="E24" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="4"/>
-        <v>206400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="14" t="s">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>313800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="20">
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>20970</v>
+        <v>20640</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2">
-        <f t="shared" ref="F25:F30" si="6">E25*D25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="15"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>20970</v>
+        <v>20640</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
-      <c r="B27" s="14" t="s">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>15930</v>
+        <v>20970</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="15"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>15930</v>
+        <v>20970</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="14" t="s">
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>17760</v>
+        <v>24570</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="15"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
-        <v>17760</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>24570</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
       <c r="F30" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="14" t="s">
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>73710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>36420</v>
+        <v>15930</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2">
-        <f t="shared" ref="F31:F35" si="7">E31*D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="15"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>36420</v>
+        <v>15930</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="14" t="s">
-        <v>23</v>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>31210</v>
+        <v>17760</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D34" s="3">
-        <v>31210</v>
+        <v>17760</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="C35" s="5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>31210</v>
+        <v>36420</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="9">
-        <f>SUM(E7:E35)</f>
-        <v>230</v>
-      </c>
-      <c r="F36" s="11">
-        <f>SUM(F7:F35)</f>
-        <v>2829250</v>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3">
+        <v>36420</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="12">
-        <v>20795</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="17" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3">
+        <v>31210</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>31210</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3">
+        <v>31210</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="9">
+        <f>SUM(E7:E39)</f>
         <v>31</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="13">
-        <f>F36-F37</f>
-        <v>2808455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
+      <c r="F40" s="11">
+        <f>SUM(F7:F39)</f>
+        <v>513030</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="13">
+        <f>F40-F41</f>
+        <v>504830</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
+      <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
+      <c r="A46" s="15"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
+      <c r="A47" s="15"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="15"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
+      <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
+      <c r="A50" s="15"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
+      <c r="A51" s="15"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
+      <c r="A52" s="15"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
+      <c r="A53" s="15"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
+      <c r="A55" s="15"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
+      <c r="A56" s="15"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
+      <c r="A57" s="15"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="A1:A42"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A1:A38"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,24 +549,33 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,15 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -957,12 +957,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -970,50 +970,50 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44699</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+        <v>44703</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1031,8 +1031,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1048,8 +1048,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1063,8 +1063,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1080,8 +1080,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1095,8 +1095,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1112,8 +1112,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1127,8 +1127,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1144,8 +1144,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1159,8 +1159,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1176,8 +1176,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1192,8 +1192,8 @@
       <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1209,8 +1209,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1224,8 +1224,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1241,8 +1241,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1256,8 +1256,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1273,8 +1273,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1288,8 +1288,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1298,17 +1298,15 @@
       <c r="D23" s="3">
         <v>15690</v>
       </c>
-      <c r="E23" s="3">
-        <v>8</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="2">
         <f t="shared" si="5"/>
-        <v>125520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1316,16 +1314,16 @@
         <v>15690</v>
       </c>
       <c r="E24" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>313800</v>
+        <v>470700</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="20">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1341,8 +1339,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1356,8 +1354,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1373,8 +1371,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="5" t="s">
         <v>4</v>
       </c>
@@ -1388,8 +1386,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1405,25 +1403,23 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="3">
         <v>24570</v>
       </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="5"/>
-        <v>73710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1439,8 +1435,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
@@ -1454,8 +1450,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1471,8 +1467,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
@@ -1489,8 +1485,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1506,8 +1502,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1521,8 +1517,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1538,8 +1534,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1556,8 +1552,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="5" t="s">
         <v>25</v>
       </c>
@@ -1571,42 +1567,42 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="9">
         <f>SUM(E7:E39)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" s="11">
         <f>SUM(F7:F39)</f>
-        <v>513030</v>
+        <v>470700</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="12">
-        <v>8200</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="13">
         <f>F40-F41</f>
-        <v>504830</v>
+        <v>467200</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -1668,6 +1664,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="A1:A42"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B29:B30"/>
@@ -1684,15 +1689,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Total=</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 8(5G)</t>
-  </si>
-  <si>
-    <t>White</t>
   </si>
   <si>
     <t>Bule</t>
@@ -549,6 +546,69 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,12 +618,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,63 +628,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -957,12 +954,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -970,50 +967,50 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44703</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44704</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1031,8 +1028,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1048,8 +1045,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1063,8 +1060,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1080,8 +1077,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1095,40 +1092,44 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="19" t="s">
-        <v>29</v>
+      <c r="A11" s="37"/>
+      <c r="B11" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>15319</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>17609</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F12" si="2">E11*D11</f>
-        <v>0</v>
+        <v>35218</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>15319</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>17609</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>105654</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1144,8 +1145,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1159,8 +1160,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1176,8 +1177,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1192,8 +1193,8 @@
       <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1209,8 +1210,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1224,8 +1225,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1241,8 +1242,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1256,30 +1257,32 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
-        <v>30</v>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="3">
-        <v>11840</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>12770</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:F39" si="5">E21*D21</f>
-        <v>0</v>
+        <f t="shared" ref="F21:F38" si="5">E21*D21</f>
+        <v>63850</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3">
-        <v>11840</v>
+        <v>12770</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2">
@@ -1288,9 +1291,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
-        <v>32</v>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>3</v>
@@ -1305,8 +1308,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1314,16 +1317,16 @@
         <v>15690</v>
       </c>
       <c r="E24" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>470700</v>
+        <v>156900</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38">
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1339,8 +1342,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1354,8 +1357,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1371,8 +1374,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="5" t="s">
         <v>4</v>
       </c>
@@ -1386,9 +1389,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19" t="s">
-        <v>33</v>
+      <c r="A29" s="37"/>
+      <c r="B29" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>3</v>
@@ -1396,31 +1399,35 @@
       <c r="D29" s="3">
         <v>24570</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
       <c r="F29" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>49140</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3">
         <v>24570</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
       <c r="F30" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>73710</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19" t="s">
-        <v>28</v>
+      <c r="A31" s="37"/>
+      <c r="B31" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>3</v>
@@ -1435,10 +1442,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3">
         <v>15930</v>
@@ -1450,9 +1457,9 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="19" t="s">
-        <v>27</v>
+      <c r="A33" s="37"/>
+      <c r="B33" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>3</v>
@@ -1467,10 +1474,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3">
         <v>17760</v>
@@ -1485,8 +1492,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1502,8 +1509,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1517,30 +1524,32 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="3">
-        <v>31210</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>29440</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
       <c r="F37" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>58880</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>31210</v>
+        <v>29440</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2">
@@ -1552,58 +1561,44 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="3">
-        <v>31210</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="A39" s="37"/>
+      <c r="B39" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="9">
+        <f>SUM(E7:E38)</f>
+        <v>30</v>
+      </c>
+      <c r="F39" s="11">
+        <f>SUM(F7:F38)</f>
+        <v>543352</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="9">
-        <f>SUM(E7:E39)</f>
+      <c r="A40" s="37"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
+      <c r="B41" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="11">
-        <f>SUM(F7:F39)</f>
-        <v>470700</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="12">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="13">
-        <f>F40-F41</f>
-        <v>467200</v>
-      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="13">
+        <f>F39-F40</f>
+        <v>543352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1659,24 +1654,12 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A1:A42"/>
+    <mergeCell ref="A1:A41"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B25:B26"/>
@@ -1689,6 +1672,15 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -1102,12 +1102,10 @@
       <c r="D11" s="3">
         <v>17609</v>
       </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F12" si="2">E11*D11</f>
-        <v>35218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1119,12 +1117,10 @@
       <c r="D12" s="3">
         <v>17609</v>
       </c>
-      <c r="E12" s="3">
-        <v>6</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>105654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
@@ -1267,12 +1263,10 @@
       <c r="D21" s="3">
         <v>12770</v>
       </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F38" si="5">E21*D21</f>
-        <v>63850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1316,12 +1310,10 @@
       <c r="D24" s="3">
         <v>15690</v>
       </c>
-      <c r="E24" s="3">
-        <v>10</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>156900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1399,12 +1391,10 @@
       <c r="D29" s="3">
         <v>24570</v>
       </c>
-      <c r="E29" s="3">
-        <v>2</v>
-      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="2">
         <f t="shared" si="5"/>
-        <v>49140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
@@ -1416,12 +1406,10 @@
       <c r="D30" s="3">
         <v>24570</v>
       </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="5"/>
-        <v>73710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -1517,10 +1505,12 @@
       <c r="D36" s="3">
         <v>36420</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
       <c r="F36" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72840</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1534,12 +1524,10 @@
       <c r="D37" s="3">
         <v>29440</v>
       </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="2">
         <f t="shared" si="5"/>
-        <v>58880</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1569,11 +1557,11 @@
       <c r="D39" s="42"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>543352</v>
+        <v>72840</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
@@ -1594,7 +1582,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>543352</v>
+        <v>72840</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -102,9 +102,6 @@
     <t>9i (6/128)</t>
   </si>
   <si>
-    <t>9i (4/64)</t>
-  </si>
-  <si>
     <t>Narzo50</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Gold</t>
+  </si>
+  <si>
+    <t>Narzo50i</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -546,12 +546,36 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,27 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,80 +940,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="7" max="14" width="9.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="9.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+    <row r="1" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="25" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44705</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="28" t="s">
+        <v>44706</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1027,9 +1032,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1044,9 +1049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="17"/>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1059,9 +1064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1072,13 +1077,13 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F14" si="1">E9*D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="17"/>
+        <f t="shared" ref="F9:F16" si="1">E9*D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1091,10 +1096,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="16" t="s">
-        <v>28</v>
+    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -1104,13 +1109,13 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2">
-        <f t="shared" ref="F11:F12" si="2">E11*D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="17"/>
+        <f t="shared" ref="F11:F14" si="2">E11*D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1123,192 +1128,194 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="16" t="s">
-        <v>20</v>
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10440</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>313200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3">
-        <v>10510</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="D14" s="3">
-        <v>10510</v>
+        <v>10440</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="16" t="s">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>11650</v>
+        <v>10510</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2">
-        <f t="shared" ref="F15:F16" si="3">E15*D15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>11650</v>
+        <v>10510</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="16" t="s">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>12660</v>
+        <v>11650</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2">
-        <f>E17*D17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="17"/>
+        <f t="shared" ref="F17:F18" si="3">E17*D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>12660</v>
+        <v>11650</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2">
-        <f>E18*D18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="16" t="s">
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="3">
-        <v>13890</v>
+        <v>12660</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2">
-        <f t="shared" ref="F19:F20" si="4">E19*D19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="17"/>
+        <f>E19*D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>13890</v>
+        <v>12660</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38" t="s">
-        <v>29</v>
+        <f>E20*D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>12770</v>
+        <v>13890</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:F38" si="5">E21*D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="39"/>
+        <f t="shared" ref="F21:F22" si="4">E21*D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>12770</v>
+        <v>13890</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38" t="s">
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15690</v>
+        <v>12770</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="39"/>
+        <f t="shared" ref="F23:F38" si="5">E23*D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3">
-        <v>15690</v>
+        <v>12770</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2">
@@ -1316,16 +1323,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38">
-        <v>8</v>
+    <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>20640</v>
+        <v>15690</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2">
@@ -1333,14 +1340,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
+    <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3">
-        <v>20640</v>
+        <v>15690</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2">
@@ -1348,16 +1355,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="16" t="s">
-        <v>24</v>
+    <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18">
+        <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>20970</v>
+        <v>20640</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2">
@@ -1365,14 +1372,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="17"/>
+    <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3">
-        <v>20970</v>
+        <v>20640</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2">
@@ -1380,16 +1387,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="16" t="s">
-        <v>32</v>
+    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>24570</v>
+        <v>20970</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2">
@@ -1397,14 +1404,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="17"/>
+    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="5" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3">
-        <v>24570</v>
+        <v>20970</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2">
@@ -1412,16 +1419,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="16" t="s">
-        <v>27</v>
+    <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>15930</v>
+        <v>24570</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2">
@@ -1429,14 +1436,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="17"/>
+    <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D32" s="3">
-        <v>15930</v>
+        <v>24570</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2">
@@ -1445,8 +1452,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1462,8 +1469,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1480,8 +1487,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1497,25 +1504,23 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="3">
         <v>36420</v>
       </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="2">
         <f t="shared" si="5"/>
-        <v>72840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1531,8 +1536,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1549,40 +1554,40 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>72840</v>
+        <v>313200</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>72840</v>
+        <v>313200</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -1644,22 +1649,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A41"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B41:E41"/>
@@ -1669,6 +1658,22 @@
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:A41"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,6 +549,69 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,12 +621,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,63 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -959,12 +959,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -972,50 +972,50 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44706</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+        <v>44707</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1033,8 +1033,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1050,8 +1050,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1065,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1082,8 +1082,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1097,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1114,23 +1114,25 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>17609</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88045</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1139,17 +1141,15 @@
       <c r="D13" s="3">
         <v>10440</v>
       </c>
-      <c r="E13" s="3">
-        <v>30</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>313200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1163,8 +1163,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1180,8 +1180,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1195,8 +1195,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1212,8 +1212,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1228,8 +1228,8 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1245,8 +1245,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1260,8 +1260,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1277,8 +1277,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1292,8 +1292,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1309,8 +1309,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1324,8 +1324,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1341,23 +1341,25 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="3">
         <v>15690</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>20</v>
+      </c>
       <c r="F26" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>313800</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1373,8 +1375,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1388,8 +1390,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1405,8 +1407,8 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1420,8 +1422,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1437,8 +1439,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1452,8 +1454,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1469,8 +1471,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1487,8 +1489,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1504,8 +1506,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1519,8 +1521,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1536,8 +1538,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1554,40 +1556,40 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>313200</v>
+        <v>401845</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="27" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>313200</v>
+        <v>401845</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -1649,16 +1651,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A1:A41"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B31:B32"/>
@@ -1674,6 +1666,16 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,12 +549,33 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,27 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -951,7 +951,7 @@
     <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="9.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="1.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.5" style="1" customWidth="1"/>
@@ -959,12 +959,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -972,50 +972,50 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44707</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+        <v>44710</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1033,8 +1033,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1050,8 +1050,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1065,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1082,8 +1082,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1097,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1114,25 +1114,23 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>17609</v>
       </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>88045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1148,8 +1146,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1163,8 +1161,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1180,8 +1178,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1195,8 +1193,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1212,8 +1210,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1228,8 +1226,8 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1245,8 +1243,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1260,8 +1258,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1277,8 +1275,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1292,8 +1290,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1309,8 +1307,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1324,8 +1322,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1341,8 +1339,8 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1350,16 +1348,16 @@
         <v>15690</v>
       </c>
       <c r="E26" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="5"/>
-        <v>313800</v>
+        <v>784500</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1375,8 +1373,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1390,8 +1388,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1407,8 +1405,8 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1422,8 +1420,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1432,37 +1430,41 @@
       <c r="D31" s="3">
         <v>24570</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
       <c r="F31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>49140</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>73710</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>17760</v>
+        <v>19540</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2">
@@ -1471,26 +1473,28 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="3">
-        <v>17760</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>19540</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97700</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1506,8 +1510,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1521,8 +1525,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1538,8 +1542,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1556,40 +1560,40 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>401845</v>
+        <v>1005050</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>401845</v>
+        <v>1005050</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -1651,6 +1655,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A1:A41"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B31:B32"/>
@@ -1667,15 +1680,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,6 +549,69 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,12 +621,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,63 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -959,12 +959,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -972,50 +972,50 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44710</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+        <v>44714</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1033,8 +1033,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1050,8 +1050,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1065,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1082,8 +1082,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1097,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1114,23 +1114,25 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>17609</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88045</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1146,8 +1148,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1161,8 +1163,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1178,8 +1180,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1193,8 +1195,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1210,8 +1212,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1226,8 +1228,8 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1243,8 +1245,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1258,8 +1260,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1275,8 +1277,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1290,8 +1292,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1307,8 +1309,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1322,8 +1324,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1339,25 +1341,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="3">
         <v>15690</v>
       </c>
-      <c r="E26" s="3">
-        <v>50</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="2">
         <f t="shared" si="5"/>
-        <v>784500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1373,8 +1373,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1388,8 +1388,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1405,8 +1405,8 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1420,8 +1420,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1430,34 +1430,30 @@
       <c r="D31" s="3">
         <v>24570</v>
       </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="2">
         <f t="shared" si="5"/>
-        <v>49140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="5"/>
-        <v>73710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1473,8 +1469,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1493,8 +1489,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1510,8 +1506,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1525,30 +1521,32 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="3">
-        <v>29440</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>31210</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
       <c r="F37" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>62420</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>29440</v>
+        <v>31210</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2">
@@ -1560,40 +1558,40 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>1005050</v>
+        <v>248165</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="27" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>1005050</v>
+        <v>248165</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -1655,15 +1653,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A1:A41"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B31:B32"/>
@@ -1680,6 +1669,15 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,6 +549,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,9 +613,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -953,13 +953,12 @@
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="9.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="1" customWidth="1"/>
+    <col min="14" max="15" width="2.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
+    <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -970,52 +969,59 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="22" t="s">
+      <c r="N1" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44714</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="28" t="s">
+        <v>44717</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1031,10 +1037,11 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="17" t="s">
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1048,10 +1055,11 @@
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="34"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1063,10 +1071,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="17" t="s">
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1080,10 +1089,11 @@
         <f t="shared" ref="F9:F16" si="1">E9*D9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="34"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1095,44 +1105,49 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="17" t="s">
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>17609</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>16689</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F14" si="2">E11*D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="34"/>
+        <v>33378</v>
+      </c>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>17609</v>
+        <v>16689</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>88045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="17" t="s">
+        <v>133512</v>
+      </c>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1146,10 +1161,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="34"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1161,10 +1177,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="17" t="s">
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1178,10 +1195,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="34"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1193,10 +1211,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1210,10 +1229,11 @@
         <f t="shared" ref="F17:F18" si="3">E17*D17</f>
         <v>0</v>
       </c>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1225,11 +1245,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="N18" s="17"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1238,30 +1259,36 @@
       <c r="D19" s="3">
         <v>12660</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
       <c r="F19" s="2">
         <f>E19*D19</f>
-        <v>0</v>
-      </c>
+        <v>63300</v>
+      </c>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12660</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
       <c r="F20" s="2">
         <f>E20*D20</f>
-        <v>0</v>
-      </c>
+        <v>126600</v>
+      </c>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1275,10 +1302,11 @@
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
         <v>0</v>
       </c>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1290,9 +1318,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="39" t="s">
         <v>28</v>
       </c>
@@ -1307,9 +1336,10 @@
         <f t="shared" ref="F23:F38" si="5">E23*D23</f>
         <v>0</v>
       </c>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -1322,9 +1352,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="39" t="s">
         <v>30</v>
       </c>
@@ -1339,9 +1370,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="40"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
@@ -1354,9 +1386,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="39">
         <v>8</v>
       </c>
@@ -1371,9 +1404,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="40"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -1386,10 +1420,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1403,10 +1438,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1418,10 +1454,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1435,25 +1472,29 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>122850</v>
+      </c>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1462,15 +1503,18 @@
       <c r="D33" s="3">
         <v>19540</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
       <c r="F33" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>39080</v>
+      </c>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1478,19 +1522,20 @@
         <v>19540</v>
       </c>
       <c r="E34" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="5"/>
-        <v>97700</v>
+        <v>156320</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1504,10 +1549,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1519,10 +1565,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1531,17 +1578,16 @@
       <c r="D37" s="3">
         <v>31210</v>
       </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="2">
         <f t="shared" si="5"/>
-        <v>62420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1553,12 +1599,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="41" t="s">
         <v>0</v>
       </c>
@@ -1566,36 +1610,45 @@
       <c r="D39" s="43"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>248165</v>
-      </c>
+        <v>675040</v>
+      </c>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="12"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="19" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>248165</v>
-      </c>
+        <v>675040</v>
+      </c>
+      <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="N42" s="17"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1652,23 +1705,20 @@
       <c r="A60" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:A41"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B19:B20"/>
+  <mergeCells count="27">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="N1:N42"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B2:F2"/>
@@ -1678,6 +1728,11 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:A41"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,12 +549,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,9 +615,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,12 +624,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,9 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="X10:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,70 +958,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="N2" s="17"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="N3" s="17"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44717</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="N4" s="17"/>
+        <v>44718</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="N5" s="17"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1037,11 +1037,11 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1055,11 +1055,11 @@
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1071,11 +1071,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1089,11 +1089,11 @@
         <f t="shared" ref="F9:F16" si="1">E9*D9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1105,11 +1105,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1125,11 +1125,11 @@
         <f t="shared" ref="F11:F14" si="2">E11*D11</f>
         <v>33378</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1143,11 +1143,11 @@
         <f t="shared" si="2"/>
         <v>133512</v>
       </c>
-      <c r="N12" s="17"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1161,11 +1161,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1177,11 +1177,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1195,11 +1195,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,11 +1211,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1229,11 +1229,11 @@
         <f t="shared" ref="F17:F18" si="3">E17*D17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1245,12 +1245,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="22"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1259,36 +1259,32 @@
       <c r="D19" s="3">
         <v>12660</v>
       </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="2">
         <f>E19*D19</f>
-        <v>63300</v>
-      </c>
-      <c r="N19" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12660</v>
       </c>
-      <c r="E20" s="3">
-        <v>10</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="2">
         <f>E20*D20</f>
-        <v>126600</v>
-      </c>
-      <c r="N20" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1302,11 +1298,11 @@
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1318,11 +1314,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N22" s="17"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1336,11 +1332,11 @@
         <f t="shared" ref="F23:F38" si="5">E23*D23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="17"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1352,11 +1348,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N24" s="17"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1370,11 +1366,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N25" s="17"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1386,11 +1382,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N26" s="17"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="39">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1404,11 +1400,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1420,11 +1416,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="17"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1438,11 +1434,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="17"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1454,11 +1450,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="17"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1467,34 +1463,34 @@
       <c r="D31" s="3">
         <v>24570</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
       <c r="F31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="17"/>
+        <v>73710</v>
+      </c>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="5"/>
-        <v>122850</v>
-      </c>
-      <c r="N32" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1503,18 +1499,16 @@
       <c r="D33" s="3">
         <v>19540</v>
       </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="2">
         <f t="shared" si="5"/>
-        <v>39080</v>
-      </c>
-      <c r="N33" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1522,20 +1516,20 @@
         <v>19540</v>
       </c>
       <c r="E34" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="5"/>
-        <v>156320</v>
+        <v>97700</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="17"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1549,11 +1543,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="17"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1565,11 +1559,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N36" s="17"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1583,11 +1577,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N37" s="17"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1599,56 +1593,58 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N38" s="17"/>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>675040</v>
-      </c>
-      <c r="N39" s="17"/>
+        <v>338300</v>
+      </c>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="12"/>
-      <c r="N40" s="17"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="12">
+        <v>1872</v>
+      </c>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>675040</v>
-      </c>
-      <c r="N41" s="17"/>
+        <v>336428</v>
+      </c>
+      <c r="N41" s="22"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="N42" s="17"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="N42" s="22"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1706,17 +1702,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="N1:N42"/>
     <mergeCell ref="B37:B38"/>
@@ -1733,6 +1718,17 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,88 +549,88 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="X10:Y10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,70 +958,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="N2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="N3" s="22"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44718</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="N4" s="22"/>
+        <v>44719</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="N5" s="22"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1037,11 +1037,11 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1055,11 +1055,11 @@
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1071,11 +1071,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1089,11 +1089,11 @@
         <f t="shared" ref="F9:F16" si="1">E9*D9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1105,11 +1105,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1118,18 +1118,16 @@
       <c r="D11" s="3">
         <v>16689</v>
       </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F14" si="2">E11*D11</f>
-        <v>33378</v>
-      </c>
-      <c r="N11" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1137,17 +1135,17 @@
         <v>16689</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>133512</v>
-      </c>
-      <c r="N12" s="22"/>
+        <v>83445</v>
+      </c>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1161,11 +1159,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1177,11 +1175,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1195,11 +1193,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="22"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,11 +1209,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="22"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1229,11 +1227,11 @@
         <f t="shared" ref="F17:F18" si="3">E17*D17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="22"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1245,12 +1243,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="22"/>
+      <c r="N18" s="17"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1264,11 +1262,11 @@
         <f>E19*D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="22"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1280,11 +1278,11 @@
         <f>E20*D20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="22"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1298,11 +1296,11 @@
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="22"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1314,11 +1312,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N22" s="22"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1327,32 +1325,36 @@
       <c r="D23" s="3">
         <v>12770</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
       <c r="F23" s="2">
         <f t="shared" ref="F23:F38" si="5">E23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="22"/>
+        <v>38310</v>
+      </c>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>12770</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="22"/>
+        <v>25540</v>
+      </c>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1366,11 +1368,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N25" s="22"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1382,11 +1384,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N26" s="22"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="20">
+      <c r="A27" s="17"/>
+      <c r="B27" s="39">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1400,11 +1402,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="22"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1416,11 +1418,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="22"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1434,11 +1436,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="22"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1450,11 +1452,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="22"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1463,18 +1465,16 @@
       <c r="D31" s="3">
         <v>24570</v>
       </c>
-      <c r="E31" s="3">
-        <v>3</v>
-      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="2">
         <f t="shared" si="5"/>
-        <v>73710</v>
-      </c>
-      <c r="N31" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1486,11 +1486,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32" s="22"/>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1499,16 +1499,18 @@
       <c r="D33" s="3">
         <v>19540</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
       <c r="F33" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="22"/>
+        <v>39080</v>
+      </c>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1516,20 +1518,20 @@
         <v>19540</v>
       </c>
       <c r="E34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="5"/>
-        <v>97700</v>
+        <v>58620</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="22"/>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1543,11 +1545,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="22"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1559,11 +1561,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N36" s="22"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1577,11 +1579,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N37" s="22"/>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1593,58 +1595,56 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N38" s="22"/>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>338300</v>
-      </c>
-      <c r="N39" s="22"/>
+        <v>244995</v>
+      </c>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="12">
-        <v>1872</v>
-      </c>
-      <c r="N40" s="22"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="12"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>336428</v>
-      </c>
-      <c r="N41" s="22"/>
+        <v>244995</v>
+      </c>
+      <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="N42" s="22"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="N42" s="17"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1702,6 +1702,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="N1:N42"/>
     <mergeCell ref="B37:B38"/>
@@ -1718,17 +1729,6 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,12 +549,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,9 +615,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,12 +624,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,9 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,70 +958,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="N2" s="17"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="N3" s="17"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44719</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="N4" s="17"/>
+        <v>44720</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="N5" s="17"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1037,79 +1037,79 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3">
-        <v>8510</v>
+        <v>9280</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8510</v>
+        <v>9280</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>10390</v>
+        <v>11030</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F16" si="1">E9*D9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>10390</v>
+        <v>11030</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1118,16 +1118,18 @@
       <c r="D11" s="3">
         <v>16689</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F14" si="2">E11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="17"/>
+        <v>33378</v>
+      </c>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1135,17 +1137,17 @@
         <v>16689</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>83445</v>
-      </c>
-      <c r="N12" s="17"/>
+        <v>50067</v>
+      </c>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1159,11 +1161,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1175,11 +1177,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1193,11 +1195,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1209,11 +1211,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1227,11 +1229,11 @@
         <f t="shared" ref="F17:F18" si="3">E17*D17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1243,12 +1245,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="22"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1262,11 +1264,11 @@
         <f>E19*D19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="17"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1278,45 +1280,47 @@
         <f>E20*D20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="17"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>13890</v>
+        <v>14710</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>13890</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>14710</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="17"/>
+        <v>147100</v>
+      </c>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1326,17 +1330,17 @@
         <v>12770</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ref="F23:F38" si="5">E23*D23</f>
-        <v>38310</v>
-      </c>
-      <c r="N23" s="17"/>
+        <v>25540</v>
+      </c>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1344,17 +1348,17 @@
         <v>12770</v>
       </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>25540</v>
-      </c>
-      <c r="N24" s="17"/>
+        <v>38310</v>
+      </c>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1368,11 +1372,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N25" s="17"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1384,45 +1388,47 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N26" s="17"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="39">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>20640</v>
+        <v>22770</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3">
-        <v>20640</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>22770</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
       <c r="F28" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="17"/>
+        <v>113850</v>
+      </c>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1436,11 +1442,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="17"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1452,11 +1458,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="17"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1470,11 +1476,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N31" s="17"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1486,11 +1492,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32" s="17"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1499,39 +1505,35 @@
       <c r="D33" s="3">
         <v>19540</v>
       </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="2">
         <f t="shared" si="5"/>
-        <v>39080</v>
-      </c>
-      <c r="N33" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="3">
         <v>19540</v>
       </c>
-      <c r="E34" s="3">
-        <v>3</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="5"/>
-        <v>58620</v>
+        <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="17"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1545,11 +1547,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="17"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1561,11 +1563,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N36" s="17"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1579,11 +1581,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N37" s="17"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1595,56 +1597,56 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N38" s="17"/>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>244995</v>
-      </c>
-      <c r="N39" s="17"/>
+        <v>408245</v>
+      </c>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="12"/>
-      <c r="N40" s="17"/>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>244995</v>
-      </c>
-      <c r="N41" s="17"/>
+        <v>408245</v>
+      </c>
+      <c r="N41" s="22"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="N42" s="17"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="N42" s="22"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1702,17 +1704,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="N1:N42"/>
     <mergeCell ref="B37:B38"/>
@@ -1729,6 +1720,17 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,88 +549,88 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,70 +958,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="N2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="N3" s="22"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44720</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="N4" s="22"/>
+        <v>44734</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="N5" s="22"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1037,11 +1037,11 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1055,11 +1055,11 @@
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1071,11 +1071,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1089,11 +1089,11 @@
         <f t="shared" ref="F9:F16" si="1">E9*D9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1105,11 +1105,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1119,17 +1119,17 @@
         <v>16689</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F14" si="2">E11*D11</f>
-        <v>33378</v>
-      </c>
-      <c r="N11" s="22"/>
+        <v>333780</v>
+      </c>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1137,17 +1137,17 @@
         <v>16689</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>50067</v>
-      </c>
-      <c r="N12" s="22"/>
+        <v>1168230</v>
+      </c>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1161,11 +1161,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1177,11 +1177,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1195,11 +1195,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="22"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,11 +1211,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="22"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1229,11 +1229,11 @@
         <f t="shared" ref="F17:F18" si="3">E17*D17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="22"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1245,12 +1245,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="22"/>
+      <c r="N18" s="17"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1259,32 +1259,36 @@
       <c r="D19" s="3">
         <v>12660</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
       <c r="F19" s="2">
         <f>E19*D19</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="22"/>
+        <v>253200</v>
+      </c>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12660</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
       <c r="F20" s="2">
         <f>E20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="22"/>
+        <v>253200</v>
+      </c>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1293,16 +1297,18 @@
       <c r="D21" s="3">
         <v>14710</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="22"/>
+        <v>294200</v>
+      </c>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1310,17 +1316,17 @@
         <v>14710</v>
       </c>
       <c r="E22" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
-        <v>147100</v>
-      </c>
-      <c r="N22" s="22"/>
+        <v>441300</v>
+      </c>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1330,17 +1336,17 @@
         <v>12770</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ref="F23:F38" si="5">E23*D23</f>
-        <v>25540</v>
-      </c>
-      <c r="N23" s="22"/>
+        <v>127700</v>
+      </c>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1348,17 +1354,17 @@
         <v>12770</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>38310</v>
-      </c>
-      <c r="N24" s="22"/>
+        <v>255400</v>
+      </c>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1372,11 +1378,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N25" s="22"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1388,11 +1394,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N26" s="22"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="20">
+      <c r="A27" s="17"/>
+      <c r="B27" s="39">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1406,29 +1412,27 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="22"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3">
         <v>22770</v>
       </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="2">
         <f t="shared" si="5"/>
-        <v>113850</v>
-      </c>
-      <c r="N28" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1442,11 +1446,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="22"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1458,11 +1462,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="22"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1471,32 +1475,36 @@
       <c r="D31" s="3">
         <v>24570</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
       <c r="F31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="22"/>
+        <v>73710</v>
+      </c>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>7</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="22"/>
+        <v>171990</v>
+      </c>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1505,35 +1513,39 @@
       <c r="D33" s="3">
         <v>19540</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
       <c r="F33" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="22"/>
+        <v>97700</v>
+      </c>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="3">
         <v>19540</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>10</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>195400</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="22"/>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1547,11 +1559,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="22"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1563,11 +1575,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N36" s="22"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1576,77 +1588,81 @@
       <c r="D37" s="3">
         <v>31210</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>8</v>
+      </c>
       <c r="F37" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="22"/>
+        <v>249680</v>
+      </c>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="3">
         <v>31210</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
       <c r="F38" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="22"/>
+        <v>62420</v>
+      </c>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>408245</v>
-      </c>
-      <c r="N39" s="22"/>
+        <v>3977910</v>
+      </c>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="12"/>
-      <c r="N40" s="22"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>408245</v>
-      </c>
-      <c r="N41" s="22"/>
+        <v>3977910</v>
+      </c>
+      <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="N42" s="22"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="N42" s="17"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1704,6 +1720,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="N1:N42"/>
     <mergeCell ref="B37:B38"/>
@@ -1720,17 +1747,6 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,12 +549,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,9 +615,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,12 +624,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,9 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,7 +941,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,70 +958,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="N2" s="17"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="N3" s="17"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44734</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="N4" s="17"/>
+        <v>44735</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="N5" s="17"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1037,11 +1037,11 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1055,11 +1055,11 @@
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1071,11 +1071,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1089,11 +1089,11 @@
         <f t="shared" ref="F9:F16" si="1">E9*D9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1105,11 +1105,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1119,17 +1119,17 @@
         <v>16689</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F14" si="2">E11*D11</f>
-        <v>333780</v>
-      </c>
-      <c r="N11" s="17"/>
+        <v>166890</v>
+      </c>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1137,17 +1137,17 @@
         <v>16689</v>
       </c>
       <c r="E12" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>1168230</v>
-      </c>
-      <c r="N12" s="17"/>
+        <v>166890</v>
+      </c>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1161,11 +1161,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1177,11 +1177,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1195,11 +1195,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,11 +1211,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1229,11 +1229,11 @@
         <f t="shared" ref="F17:F18" si="3">E17*D17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1245,12 +1245,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="22"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1259,18 +1259,16 @@
       <c r="D19" s="3">
         <v>12660</v>
       </c>
-      <c r="E19" s="3">
-        <v>20</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="2">
         <f>E19*D19</f>
-        <v>253200</v>
-      </c>
-      <c r="N19" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1278,17 +1276,17 @@
         <v>12660</v>
       </c>
       <c r="E20" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2">
         <f>E20*D20</f>
-        <v>253200</v>
-      </c>
-      <c r="N20" s="17"/>
+        <v>126600</v>
+      </c>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1297,18 +1295,16 @@
       <c r="D21" s="3">
         <v>14710</v>
       </c>
-      <c r="E21" s="3">
-        <v>20</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
-        <v>294200</v>
-      </c>
-      <c r="N21" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1316,17 +1312,17 @@
         <v>14710</v>
       </c>
       <c r="E22" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
-        <v>441300</v>
-      </c>
-      <c r="N22" s="17"/>
+        <v>147100</v>
+      </c>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1335,18 +1331,16 @@
       <c r="D23" s="3">
         <v>12770</v>
       </c>
-      <c r="E23" s="3">
-        <v>10</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="2">
         <f t="shared" ref="F23:F38" si="5">E23*D23</f>
-        <v>127700</v>
-      </c>
-      <c r="N23" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1354,17 +1348,17 @@
         <v>12770</v>
       </c>
       <c r="E24" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>255400</v>
-      </c>
-      <c r="N24" s="17"/>
+        <v>127700</v>
+      </c>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1378,27 +1372,29 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N25" s="17"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="3">
         <v>15690</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>20</v>
+      </c>
       <c r="F26" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="17"/>
+        <v>313800</v>
+      </c>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="39">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1412,11 +1408,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1428,11 +1424,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="17"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1446,11 +1442,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="17"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1462,11 +1458,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="17"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1476,35 +1472,33 @@
         <v>24570</v>
       </c>
       <c r="E31" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="5"/>
-        <v>73710</v>
-      </c>
-      <c r="N31" s="17"/>
+        <v>245700</v>
+      </c>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3">
-        <v>7</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="5"/>
-        <v>171990</v>
-      </c>
-      <c r="N32" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1513,18 +1507,16 @@
       <c r="D33" s="3">
         <v>19540</v>
       </c>
-      <c r="E33" s="3">
-        <v>5</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="2">
         <f t="shared" si="5"/>
-        <v>97700</v>
-      </c>
-      <c r="N33" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1541,11 +1533,11 @@
       <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="17"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1559,11 +1551,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="17"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1575,11 +1567,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N36" s="17"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1588,81 +1580,77 @@
       <c r="D37" s="3">
         <v>31210</v>
       </c>
-      <c r="E37" s="3">
-        <v>8</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="2">
         <f t="shared" si="5"/>
-        <v>249680</v>
-      </c>
-      <c r="N37" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="3">
         <v>31210</v>
       </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="2">
         <f t="shared" si="5"/>
-        <v>62420</v>
-      </c>
-      <c r="N38" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>3977910</v>
-      </c>
-      <c r="N39" s="17"/>
+        <v>1490080</v>
+      </c>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="12"/>
-      <c r="N40" s="17"/>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>3977910</v>
-      </c>
-      <c r="N41" s="17"/>
+        <v>1490080</v>
+      </c>
+      <c r="N41" s="22"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="N42" s="17"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="N42" s="22"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1720,17 +1708,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="N1:N42"/>
     <mergeCell ref="B37:B38"/>
@@ -1747,6 +1724,17 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,88 +549,88 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,70 +958,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="N2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="N3" s="22"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44735</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="N4" s="22"/>
+        <v>44738</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="N5" s="22"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1037,11 +1037,11 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1055,11 +1055,11 @@
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1071,11 +1071,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1089,11 +1089,11 @@
         <f t="shared" ref="F9:F16" si="1">E9*D9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1105,11 +1105,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1118,36 +1118,32 @@
       <c r="D11" s="3">
         <v>16689</v>
       </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F14" si="2">E11*D11</f>
-        <v>166890</v>
-      </c>
-      <c r="N11" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>16689</v>
       </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>166890</v>
-      </c>
-      <c r="N12" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1161,11 +1157,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1177,11 +1173,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1195,11 +1191,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="22"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,11 +1207,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="22"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1229,11 +1225,11 @@
         <f t="shared" ref="F17:F18" si="3">E17*D17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="22"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1245,12 +1241,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="22"/>
+      <c r="N18" s="17"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1259,34 +1255,34 @@
       <c r="D19" s="3">
         <v>12660</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
       <c r="F19" s="2">
         <f>E19*D19</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="22"/>
+        <v>126600</v>
+      </c>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12660</v>
       </c>
-      <c r="E20" s="3">
-        <v>10</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="2">
         <f>E20*D20</f>
-        <v>126600</v>
-      </c>
-      <c r="N20" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1300,11 +1296,11 @@
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="22"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1312,17 +1308,17 @@
         <v>14710</v>
       </c>
       <c r="E22" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
-        <v>147100</v>
-      </c>
-      <c r="N22" s="22"/>
+        <v>294200</v>
+      </c>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1336,29 +1332,27 @@
         <f t="shared" ref="F23:F38" si="5">E23*D23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="22"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>12770</v>
       </c>
-      <c r="E24" s="3">
-        <v>10</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>127700</v>
-      </c>
-      <c r="N24" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1367,16 +1361,18 @@
       <c r="D25" s="3">
         <v>15690</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
       <c r="F25" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="22"/>
+        <v>156900</v>
+      </c>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1390,11 +1386,11 @@
         <f t="shared" si="5"/>
         <v>313800</v>
       </c>
-      <c r="N26" s="22"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="20">
+      <c r="A27" s="17"/>
+      <c r="B27" s="39">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1408,11 +1404,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="22"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1424,11 +1420,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="22"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1442,11 +1438,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="22"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1458,11 +1454,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="22"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1471,18 +1467,16 @@
       <c r="D31" s="3">
         <v>24570</v>
       </c>
-      <c r="E31" s="3">
-        <v>10</v>
-      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="2">
         <f t="shared" si="5"/>
-        <v>245700</v>
-      </c>
-      <c r="N31" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1494,11 +1488,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32" s="22"/>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1512,11 +1506,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N33" s="22"/>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1533,11 +1527,11 @@
       <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="22"/>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1551,11 +1545,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="22"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1567,11 +1561,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N36" s="22"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1585,11 +1579,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N37" s="22"/>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1601,56 +1595,58 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N38" s="22"/>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>1490080</v>
-      </c>
-      <c r="N39" s="22"/>
+        <v>1086900</v>
+      </c>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="12"/>
-      <c r="N40" s="22"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="12">
+        <v>263000</v>
+      </c>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>1490080</v>
-      </c>
-      <c r="N41" s="22"/>
+        <v>823900</v>
+      </c>
+      <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="N42" s="22"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="N42" s="17"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1708,6 +1704,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="N1:N42"/>
     <mergeCell ref="B37:B38"/>
@@ -1724,17 +1731,6 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -549,12 +549,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,9 +615,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,12 +624,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,9 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,88 +940,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Z42" sqref="Z42"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="9.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="2.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.33203125" style="1"/>
+    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="N2" s="17"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="22"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="N3" s="17"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="22"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44738</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="N4" s="17"/>
+        <v>44740</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="22"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="N5" s="17"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="22"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1037,11 +1049,12 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="G6" s="22"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1055,11 +1068,12 @@
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="G7" s="22"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1071,11 +1085,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="G8" s="22"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1089,11 +1104,12 @@
         <f t="shared" ref="F9:F16" si="1">E9*D9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="G9" s="22"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1105,11 +1121,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="G10" s="22"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1118,32 +1135,38 @@
       <c r="D11" s="3">
         <v>16689</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F14" si="2">E11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="17"/>
+        <v>166890</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>16689</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="17"/>
+        <v>333780</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1157,11 +1180,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="G13" s="22"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1173,11 +1197,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="G14" s="22"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1191,11 +1216,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="G15" s="22"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1207,11 +1233,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="G16" s="22"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1225,11 +1252,12 @@
         <f t="shared" ref="F17:F18" si="3">E17*D17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="G17" s="22"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1241,12 +1269,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="G18" s="22"/>
+      <c r="N18" s="15"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1262,27 +1291,31 @@
         <f>E19*D19</f>
         <v>126600</v>
       </c>
-      <c r="N19" s="17"/>
+      <c r="G19" s="22"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12660</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
       <c r="F20" s="2">
         <f>E20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="17"/>
+        <v>253200</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1291,16 +1324,19 @@
       <c r="D21" s="3">
         <v>14710</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="17"/>
+        <v>147100</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1314,11 +1350,12 @@
         <f t="shared" si="4"/>
         <v>294200</v>
       </c>
-      <c r="N22" s="17"/>
+      <c r="G22" s="22"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1327,32 +1364,38 @@
       <c r="D23" s="3">
         <v>12770</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>30</v>
+      </c>
       <c r="F23" s="2">
         <f t="shared" ref="F23:F38" si="5">E23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="17"/>
+        <v>383100</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>12770</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>20</v>
+      </c>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="17"/>
+        <v>255400</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1362,35 +1405,35 @@
         <v>15690</v>
       </c>
       <c r="E25" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="5"/>
-        <v>156900</v>
-      </c>
-      <c r="N25" s="17"/>
+        <v>313800</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="3">
         <v>15690</v>
       </c>
-      <c r="E26" s="3">
-        <v>20</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="2">
         <f t="shared" si="5"/>
-        <v>313800</v>
-      </c>
-      <c r="N26" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="39">
+      <c r="A27" s="22"/>
+      <c r="B27" s="20">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1404,11 +1447,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="G27" s="22"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1420,11 +1464,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="17"/>
+      <c r="G28" s="22"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1438,11 +1483,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="17"/>
+      <c r="G29" s="22"/>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1454,11 +1500,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="17"/>
+      <c r="G30" s="22"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1472,11 +1519,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N31" s="17"/>
+      <c r="G31" s="22"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1488,11 +1536,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32" s="17"/>
+      <c r="G32" s="22"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1506,11 +1555,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N33" s="17"/>
+      <c r="G33" s="22"/>
+      <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1524,14 +1574,15 @@
         <f t="shared" si="5"/>
         <v>195400</v>
       </c>
+      <c r="G34" s="22"/>
       <c r="M34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="17"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1545,11 +1596,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="17"/>
+      <c r="G35" s="22"/>
+      <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1561,11 +1613,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N36" s="17"/>
+      <c r="G36" s="22"/>
+      <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1574,16 +1627,19 @@
       <c r="D37" s="3">
         <v>31210</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
       <c r="F37" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="17"/>
+        <v>312100</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1595,58 +1651,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N38" s="17"/>
+      <c r="G38" s="22"/>
+      <c r="N38" s="15"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>1086900</v>
-      </c>
-      <c r="N39" s="17"/>
+        <v>2781570</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="N39" s="15"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="12">
-        <v>263000</v>
-      </c>
-      <c r="N40" s="17"/>
+        <v>176000</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>823900</v>
-      </c>
-      <c r="N41" s="17"/>
+        <v>2605570</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="N42" s="17"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1704,19 +1764,8 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="G1:G41"/>
     <mergeCell ref="A42:F42"/>
-    <mergeCell ref="N1:N42"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B2:F2"/>
@@ -1731,6 +1780,17 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Total=</t>
   </si>
@@ -93,9 +93,6 @@
     <t>GT Master</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8(5G)</t>
-  </si>
-  <si>
     <t>Bule</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Narzo50i</t>
+  </si>
+  <si>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -549,88 +549,88 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -966,13 +966,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -982,58 +982,58 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="17"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="17"/>
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44740</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="22"/>
+        <v>44741</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="17"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="17"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1049,12 +1049,12 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="17"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1068,12 +1068,12 @@
         <f t="shared" ref="F7:F8" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="17"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1085,12 +1085,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="17"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1104,12 +1104,12 @@
         <f t="shared" ref="F9:F16" si="1">E9*D9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="17"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1121,13 +1121,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="17"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17" t="s">
-        <v>27</v>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -1135,39 +1135,35 @@
       <c r="D11" s="3">
         <v>16689</v>
       </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F14" si="2">E11*D11</f>
-        <v>166890</v>
-      </c>
-      <c r="G11" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>16689</v>
       </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>333780</v>
-      </c>
-      <c r="G12" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="17" t="s">
-        <v>33</v>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -1180,12 +1176,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="17"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1197,12 +1193,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="17"/>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1216,12 +1212,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="17"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1233,12 +1229,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="17"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1252,12 +1248,12 @@
         <f t="shared" ref="F17:F18" si="3">E17*D17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="17"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1269,13 +1265,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="17"/>
       <c r="N18" s="15"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1284,19 +1280,17 @@
       <c r="D19" s="3">
         <v>12660</v>
       </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="2">
         <f>E19*D19</f>
-        <v>126600</v>
-      </c>
-      <c r="G19" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1310,12 +1304,12 @@
         <f>E20*D20</f>
         <v>253200</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="17"/>
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1324,19 +1318,17 @@
       <c r="D21" s="3">
         <v>14710</v>
       </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
-        <v>147100</v>
-      </c>
-      <c r="G21" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="17"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1350,13 +1342,13 @@
         <f t="shared" si="4"/>
         <v>294200</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="17"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="20" t="s">
-        <v>28</v>
+      <c r="A23" s="17"/>
+      <c r="B23" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>18</v>
@@ -1364,39 +1356,35 @@
       <c r="D23" s="3">
         <v>12770</v>
       </c>
-      <c r="E23" s="3">
-        <v>30</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="2">
-        <f t="shared" ref="F23:F38" si="5">E23*D23</f>
-        <v>383100</v>
-      </c>
-      <c r="G23" s="22"/>
+        <f t="shared" ref="F23:F36" si="5">E23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="17"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>12770</v>
       </c>
-      <c r="E24" s="3">
-        <v>20</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>255400</v>
-      </c>
-      <c r="G24" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="17"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="20" t="s">
-        <v>30</v>
+      <c r="A25" s="17"/>
+      <c r="B25" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>3</v>
@@ -1405,18 +1393,18 @@
         <v>15690</v>
       </c>
       <c r="E25" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="5"/>
-        <v>313800</v>
-      </c>
-      <c r="G25" s="22"/>
+        <v>156900</v>
+      </c>
+      <c r="G25" s="17"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1428,12 +1416,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="17"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="20">
+      <c r="A27" s="17"/>
+      <c r="B27" s="39">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1447,12 +1435,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="17"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1464,249 +1452,217 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="17"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17" t="s">
-        <v>24</v>
+    <row r="29" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>20970</v>
+        <v>24570</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="17"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="18"/>
+    <row r="30" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3">
-        <v>20970</v>
+        <v>24570</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G30" s="22"/>
+      <c r="G30" s="17"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="17" t="s">
-        <v>31</v>
+    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>24570</v>
+        <v>19540</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G31" s="17"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="18"/>
+    <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D32" s="3">
-        <v>24570</v>
+        <v>19540</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G32" s="22"/>
+      <c r="G32" s="17"/>
+      <c r="M32" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="17" t="s">
-        <v>26</v>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>19540</v>
+        <v>36420</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G33" s="22"/>
+      <c r="G33" s="17"/>
       <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3">
-        <v>19540</v>
-      </c>
-      <c r="E34" s="3">
-        <v>10</v>
-      </c>
+        <v>36420</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="5"/>
-        <v>195400</v>
-      </c>
-      <c r="G34" s="22"/>
-      <c r="M34" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G34" s="17"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="17" t="s">
-        <v>16</v>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D35" s="3">
-        <v>36420</v>
+        <v>31210</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G35" s="22"/>
+      <c r="G35" s="17"/>
       <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>36420</v>
+        <v>31210</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G36" s="22"/>
+      <c r="G36" s="17"/>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3">
-        <v>31210</v>
-      </c>
-      <c r="E37" s="3">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="5"/>
-        <v>312100</v>
-      </c>
-      <c r="G37" s="22"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="9">
+        <f>SUM(E7:E36)</f>
+        <v>50</v>
+      </c>
+      <c r="F37" s="11">
+        <f>SUM(F7:F36)</f>
+        <v>704300</v>
+      </c>
+      <c r="G37" s="17"/>
       <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <v>31210</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="22"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="12">
+        <v>33800</v>
+      </c>
+      <c r="G38" s="17"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="9">
-        <f>SUM(E7:E38)</f>
-        <v>180</v>
-      </c>
-      <c r="F39" s="11">
-        <f>SUM(F7:F38)</f>
-        <v>2781570</v>
-      </c>
-      <c r="G39" s="22"/>
+    <row r="39" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="13">
+        <f>F37-F38</f>
+        <v>670500</v>
+      </c>
+      <c r="G39" s="17"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="12">
-        <v>176000</v>
-      </c>
-      <c r="G40" s="22"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="13">
-        <f>F39-F40</f>
-        <v>2605570</v>
-      </c>
-      <c r="G41" s="22"/>
-      <c r="N41" s="15"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="N42" s="15"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1756,31 +1712,10 @@
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="G1:G41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A1:A41"/>
-    <mergeCell ref="B25:B26"/>
+  <mergeCells count="25">
+    <mergeCell ref="A1:A40"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B33:B34"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B7:B8"/>
@@ -1790,7 +1725,20 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G1:G39"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -555,6 +555,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,9 +615,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,12 +624,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,9 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -967,11 +967,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="17"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -983,25 +983,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="17"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="17"/>
       <c r="N3" s="15"/>
     </row>
@@ -1012,23 +1012,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44741</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+        <v>44742</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="17"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="17"/>
       <c r="N5" s="15"/>
     </row>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
-      <c r="B8" s="35"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1145,17 +1145,19 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
-      <c r="B12" s="35"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>16689</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>166890</v>
       </c>
       <c r="G12" s="17"/>
       <c r="N12" s="15"/>
@@ -1181,7 +1183,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1219,7 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
-      <c r="B16" s="35"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1255,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="35"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1280,29 +1282,29 @@
       <c r="D19" s="3">
         <v>12660</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
       <c r="F19" s="2">
         <f>E19*D19</f>
-        <v>0</v>
+        <v>126600</v>
       </c>
       <c r="G19" s="17"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12660</v>
       </c>
-      <c r="E20" s="3">
-        <v>20</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="2">
         <f>E20*D20</f>
-        <v>253200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="17"/>
       <c r="N20" s="15"/>
@@ -1318,36 +1320,36 @@
       <c r="D21" s="3">
         <v>14710</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F22" si="4">E21*D21</f>
-        <v>0</v>
+        <v>147100</v>
       </c>
       <c r="G21" s="17"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>14710</v>
       </c>
-      <c r="E22" s="3">
-        <v>20</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
-        <v>294200</v>
+        <v>0</v>
       </c>
       <c r="G22" s="17"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1366,7 +1368,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1385,7 @@
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1404,7 +1406,7 @@
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1421,7 +1423,7 @@
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
-      <c r="B27" s="39">
+      <c r="B27" s="21">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1440,7 +1442,7 @@
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="40"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1478,7 @@
     </row>
     <row r="30" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="5" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1514,7 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
-      <c r="B32" s="35"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="5" t="s">
         <v>24</v>
       </c>
@@ -1551,7 +1553,7 @@
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="35"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="5" t="s">
         <v>18</v>
       </c>
@@ -1587,7 +1589,7 @@
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="5" t="s">
         <v>4</v>
       </c>
@@ -1604,47 +1606,47 @@
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
-      <c r="B37" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
+      <c r="B37" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="9">
         <f>SUM(E7:E36)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F37" s="11">
         <f>SUM(F7:F36)</f>
-        <v>704300</v>
+        <v>597490</v>
       </c>
       <c r="G37" s="17"/>
       <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="12">
-        <v>33800</v>
+        <v>0</v>
       </c>
       <c r="G38" s="17"/>
       <c r="N38" s="15"/>
     </row>
     <row r="39" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="13">
         <f>F37-F38</f>
-        <v>670500</v>
+        <v>597490</v>
       </c>
       <c r="G39" s="17"/>
       <c r="N39" s="15"/>
@@ -1714,17 +1716,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A40"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="G1:G39"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B39:E39"/>
@@ -1739,6 +1730,17 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:A40"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Total=</t>
   </si>
@@ -99,9 +99,6 @@
     <t>9i (6/128)</t>
   </si>
   <si>
-    <t>Narzo50</t>
-  </si>
-  <si>
     <t>C31(4+64)</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>Advance</t>
+  </si>
+  <si>
+    <t>Narzo50(4/64)</t>
+  </si>
+  <si>
+    <t>Narzo50(6/128)</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -545,6 +548,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,16 +944,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
@@ -966,13 +972,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -982,58 +988,58 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="18"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="18"/>
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44742</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="17"/>
+        <v>44746</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="18"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="18"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1049,12 +1055,12 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="18"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1065,15 +1071,15 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F8" si="0">E7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="17"/>
+        <f t="shared" ref="F7:F38" si="0">E7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1085,12 +1091,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1099,572 +1105,612 @@
       <c r="D9" s="3">
         <v>11030</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F16" si="1">E9*D9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="17"/>
+        <f t="shared" si="0"/>
+        <v>110300</v>
+      </c>
+      <c r="G9" s="18"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11030</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>30</v>
+      </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="17"/>
+        <f t="shared" si="0"/>
+        <v>330900</v>
+      </c>
+      <c r="G10" s="18"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>26</v>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>16689</v>
+        <v>17199</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2">
-        <f t="shared" ref="F11:F14" si="2">E11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="18"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>16689</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
+        <v>17199</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>166890</v>
-      </c>
-      <c r="G12" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="18"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>32</v>
+    <row r="13" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>10440</v>
+        <v>20389</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="18"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
+    <row r="14" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3">
+        <v>20389</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>203890</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3">
         <v>10440</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>10510</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="18"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
+    <row r="16" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>10510</v>
+        <v>10440</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
-        <v>15</v>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>11650</v>
+        <v>10510</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2">
-        <f t="shared" ref="F17:F18" si="3">E17*D17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="18"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>11650</v>
+        <v>10510</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18"/>
       <c r="N18" s="15"/>
-      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
-        <v>17</v>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>12660</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
+        <v>11650</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="2">
-        <f>E19*D19</f>
-        <v>126600</v>
-      </c>
-      <c r="G19" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>12660</v>
+        <v>11650</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2">
-        <f>E20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="18"/>
       <c r="N20" s="15"/>
+      <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
-        <v>14</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>14710</v>
+        <v>12660</v>
       </c>
       <c r="E21" s="3">
         <v>10</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:F22" si="4">E21*D21</f>
-        <v>147100</v>
-      </c>
-      <c r="G21" s="17"/>
+        <f t="shared" si="0"/>
+        <v>126600</v>
+      </c>
+      <c r="G21" s="18"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>14710</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>12660</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20</v>
+      </c>
       <c r="F22" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="17"/>
+        <f t="shared" si="0"/>
+        <v>253200</v>
+      </c>
+      <c r="G22" s="18"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="21" t="s">
-        <v>27</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
-        <v>12770</v>
+        <v>15250</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2">
-        <f t="shared" ref="F23:F36" si="5">E23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="18"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>12770</v>
+        <v>15250</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="18"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="21" t="s">
-        <v>29</v>
+    <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3">
-        <v>15690</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
+        <v>12870</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="2">
-        <f t="shared" si="5"/>
-        <v>156900</v>
-      </c>
-      <c r="G25" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="18"/>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="22"/>
+    <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>15690</v>
+        <v>12870</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="18"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="21">
-        <v>8</v>
+    <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>22770</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>16190</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
       <c r="F27" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="17"/>
+        <f t="shared" si="0"/>
+        <v>161900</v>
+      </c>
+      <c r="G27" s="18"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="22"/>
+    <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3">
-        <v>22770</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>16190</v>
+      </c>
+      <c r="E28" s="3">
+        <v>40</v>
+      </c>
       <c r="F28" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="17"/>
+        <f t="shared" si="0"/>
+        <v>647600</v>
+      </c>
+      <c r="G28" s="18"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
-        <v>30</v>
+    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="22">
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>24570</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>22770</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
       <c r="F29" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="17"/>
+        <f t="shared" si="0"/>
+        <v>227700</v>
+      </c>
+      <c r="G29" s="18"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
+    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3">
-        <v>24570</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>22770</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
       <c r="F30" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="17"/>
+        <f t="shared" si="0"/>
+        <v>113850</v>
+      </c>
+      <c r="G30" s="18"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
-        <v>25</v>
+    <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>19540</v>
+        <v>24570</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="18"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
+    <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3">
-        <v>19540</v>
+        <v>24570</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="M32" s="1" t="s">
-        <v>22</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="18"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
-        <v>16</v>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>36420</v>
+        <v>19540</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="18"/>
       <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3">
-        <v>36420</v>
+        <v>19540</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="M34" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18" t="s">
-        <v>23</v>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>31210</v>
+        <v>38990</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="18"/>
       <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3">
-        <v>31210</v>
+        <v>38990</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="18"/>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="9">
-        <f>SUM(E7:E36)</f>
-        <v>40</v>
-      </c>
-      <c r="F37" s="11">
-        <f>SUM(F7:F36)</f>
-        <v>597490</v>
-      </c>
-      <c r="G37" s="17"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3">
+        <v>33670</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="18"/>
       <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="12">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>33670</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="18"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="13">
-        <f>F37-F38</f>
-        <v>597490</v>
-      </c>
-      <c r="G39" s="17"/>
+    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="9">
+        <f>SUM(E7:E38)</f>
+        <v>145</v>
+      </c>
+      <c r="F39" s="11">
+        <f>SUM(F7:F38)</f>
+        <v>2175940</v>
+      </c>
+      <c r="G39" s="18"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+    <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="13">
+        <f>F39-F40</f>
+        <v>2175940</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
@@ -1714,33 +1760,40 @@
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
     </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="G1:G39"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B39:E39"/>
+  <mergeCells count="26">
+    <mergeCell ref="G1:G41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B41:E41"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A1:A42"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:A40"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -500,7 +500,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -561,82 +561,85 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,7 +950,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -964,7 +967,7 @@
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
@@ -973,11 +976,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="18"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -989,25 +992,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="18"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="18"/>
       <c r="N3" s="15"/>
     </row>
@@ -1018,23 +1021,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44746</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+        <v>44747</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="18"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="18"/>
       <c r="N5" s="15"/>
     </row>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1105,31 +1108,27 @@
       <c r="D9" s="3">
         <v>11030</v>
       </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>110300</v>
+        <v>0</v>
       </c>
       <c r="G9" s="18"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11030</v>
       </c>
-      <c r="E10" s="3">
-        <v>30</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>330900</v>
+        <v>0</v>
       </c>
       <c r="G10" s="18"/>
       <c r="N10" s="15"/>
@@ -1155,7 +1154,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1191,19 +1190,17 @@
     </row>
     <row r="14" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>20389</v>
       </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>203890</v>
+        <v>0</v>
       </c>
       <c r="G14" s="18"/>
       <c r="N14" s="15"/>
@@ -1229,7 +1226,7 @@
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1262,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1328,31 +1325,27 @@
       <c r="D21" s="3">
         <v>12660</v>
       </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>126600</v>
+        <v>0</v>
       </c>
       <c r="G21" s="18"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>12660</v>
       </c>
-      <c r="E22" s="3">
-        <v>20</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>253200</v>
+        <v>0</v>
       </c>
       <c r="G22" s="18"/>
       <c r="N22" s="15"/>
@@ -1378,7 +1371,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1388,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1414,7 +1407,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1431,7 +1424,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1440,19 +1433,17 @@
       <c r="D27" s="3">
         <v>16190</v>
       </c>
-      <c r="E27" s="3">
-        <v>10</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>161900</v>
+        <v>0</v>
       </c>
       <c r="G27" s="18"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1460,18 +1451,18 @@
         <v>16190</v>
       </c>
       <c r="E28" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>647600</v>
+        <v>1133300</v>
       </c>
       <c r="G28" s="18"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
-      <c r="B29" s="22">
+      <c r="B29" s="40">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1480,31 +1471,27 @@
       <c r="D29" s="3">
         <v>22770</v>
       </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>227700</v>
+        <v>0</v>
       </c>
       <c r="G29" s="18"/>
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3">
         <v>22770</v>
       </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>113850</v>
+        <v>0</v>
       </c>
       <c r="G30" s="18"/>
       <c r="N30" s="15"/>
@@ -1530,7 +1517,7 @@
     </row>
     <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1566,7 +1553,7 @@
     </row>
     <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="5" t="s">
         <v>24</v>
       </c>
@@ -1605,7 +1592,7 @@
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
@@ -1637,11 +1624,14 @@
         <v>0</v>
       </c>
       <c r="G37" s="18"/>
+      <c r="M37" s="46">
+        <v>27000</v>
+      </c>
       <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
-      <c r="B38" s="24"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1654,51 +1644,60 @@
         <v>0</v>
       </c>
       <c r="G38" s="18"/>
+      <c r="M38" s="46">
+        <v>970000</v>
+      </c>
       <c r="N38" s="15"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
-      <c r="B39" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="45"/>
+      <c r="B39" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="9">
         <f>SUM(E7:E38)</f>
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="F39" s="11">
         <f>SUM(F7:F38)</f>
-        <v>2175940</v>
+        <v>1133300</v>
       </c>
       <c r="G39" s="18"/>
+      <c r="M39" s="46">
+        <v>110000</v>
+      </c>
       <c r="N39" s="15"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="12">
         <v>0</v>
       </c>
       <c r="G40" s="18"/>
+      <c r="M40" s="46">
+        <v>30000</v>
+      </c>
       <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="13">
         <f>F39-F40</f>
-        <v>2175940</v>
+        <v>1133300</v>
       </c>
       <c r="G41" s="18"/>
       <c r="N41" s="15"/>
@@ -1768,6 +1767,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A42"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="G1:G41"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B41:E41"/>
@@ -1782,18 +1793,6 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A1:A42"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Total=</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Narzo50(6/128)</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -558,6 +561,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,9 +646,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -975,13 +981,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="18"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -991,58 +997,58 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="20"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="20"/>
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44747</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="18"/>
+        <v>44748</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="20"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="18"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="20"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1058,12 +1064,12 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="20"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1074,15 +1080,15 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F38" si="0">E7*D7</f>
+        <f t="shared" ref="F7:F39" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="20"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1094,12 +1100,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="20"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1113,29 +1119,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="20"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11030</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>220600</v>
+      </c>
+      <c r="G10" s="20"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1149,12 +1157,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="20"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1166,12 +1174,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="20"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1180,34 +1188,38 @@
       <c r="D13" s="3">
         <v>20389</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="18"/>
+        <v>101945</v>
+      </c>
+      <c r="G13" s="20"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>20389</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>25</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="18"/>
+        <v>509725</v>
+      </c>
+      <c r="G14" s="20"/>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1221,12 +1233,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="20"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1238,12 +1250,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="20"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1257,12 +1269,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="20"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1274,12 +1286,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="20"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1293,12 +1305,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="20"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1310,13 +1322,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="20"/>
       <c r="N20" s="15"/>
       <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1330,12 +1342,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="20"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1347,12 +1359,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="20"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1361,34 +1373,38 @@
       <c r="D23" s="3">
         <v>15250</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="18"/>
+        <v>152500</v>
+      </c>
+      <c r="G23" s="20"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="3">
         <v>15250</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>20</v>
+      </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="18"/>
+        <v>305000</v>
+      </c>
+      <c r="G24" s="20"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1397,34 +1413,38 @@
       <c r="D25" s="3">
         <v>12870</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>20</v>
+      </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="18"/>
+        <v>257400</v>
+      </c>
+      <c r="G25" s="20"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3">
         <v>12870</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>30</v>
+      </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="18"/>
+        <v>386100</v>
+      </c>
+      <c r="G26" s="20"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1438,31 +1458,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="20"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
         <v>16190</v>
       </c>
-      <c r="E28" s="3">
-        <v>70</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>1133300</v>
-      </c>
-      <c r="G28" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="20"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="40">
+      <c r="A29" s="20"/>
+      <c r="B29" s="42">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1471,130 +1489,144 @@
       <c r="D29" s="3">
         <v>22770</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="18"/>
+        <v>113850</v>
+      </c>
+      <c r="G29" s="20"/>
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3">
         <v>22770</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="18"/>
+        <v>113850</v>
+      </c>
+      <c r="G30" s="20"/>
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3">
         <v>24570</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="18"/>
+        <v>49140</v>
+      </c>
+      <c r="G31" s="20"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="36"/>
+    <row r="32" spans="1:20" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="5" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="18"/>
+        <v>49140</v>
+      </c>
+      <c r="G32" s="20"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19" t="s">
+    <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3">
+        <v>24570</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>147420</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="D33" s="3">
-        <v>19540</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D34" s="3">
         <v>19540</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="M34" s="1" t="s">
+        <v>97700</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3">
+        <v>19540</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>293100</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="M35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19" t="s">
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>38990</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="N35" s="15"/>
-    </row>
-    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="D36" s="3">
         <v>38990</v>
@@ -1604,115 +1636,125 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="18"/>
+      <c r="G36" s="20"/>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3">
+        <v>38990</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>116970</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D37" s="3">
-        <v>33670</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="18"/>
-      <c r="M37" s="46">
-        <v>27000</v>
-      </c>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="D38" s="3">
         <v>33670</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3">
+        <v>5</v>
+      </c>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
+        <v>168350</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>33670</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="M38" s="46">
-        <v>970000</v>
-      </c>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="42" t="s">
+      <c r="G39" s="20"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="9">
-        <f>SUM(E7:E38)</f>
-        <v>70</v>
-      </c>
-      <c r="F39" s="11">
-        <f>SUM(F7:F38)</f>
-        <v>1133300</v>
-      </c>
-      <c r="G39" s="18"/>
-      <c r="M39" s="46">
-        <v>110000</v>
-      </c>
-      <c r="N39" s="15"/>
-    </row>
-    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="33" t="s">
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="9">
+        <f>SUM(E7:E39)</f>
+        <v>178</v>
+      </c>
+      <c r="F40" s="11">
+        <f>SUM(F7:F39)</f>
+        <v>3082790</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="12">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="12">
         <v>0</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="M40" s="46">
-        <v>30000</v>
-      </c>
-      <c r="N40" s="15"/>
-    </row>
-    <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="21" t="s">
+      <c r="G41" s="20"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="13">
-        <f>F39-F40</f>
-        <v>1133300</v>
-      </c>
-      <c r="G41" s="18"/>
-      <c r="N41" s="15"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="13">
+        <f>F40-F41</f>
+        <v>3082790</v>
+      </c>
+      <c r="G42" s="20"/>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
@@ -1765,10 +1807,13 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
     </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A42"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A1:A43"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B7:B8"/>
@@ -1779,19 +1824,19 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G1:G41"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="G1:G42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Total=</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>C35(6+128)</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -567,9 +570,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,9 +636,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,12 +645,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,9 +652,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -981,13 +987,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="20"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -997,58 +1003,58 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44748</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="20"/>
+        <v>44754</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1064,12 +1070,12 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1080,15 +1086,15 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F39" si="0">E7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="20"/>
+        <f t="shared" ref="F7:F41" si="0">E7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="21"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1100,12 +1106,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="21"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1119,31 +1125,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="21"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11030</v>
       </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>220600</v>
-      </c>
-      <c r="G10" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="21"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1152,34 +1156,38 @@
       <c r="D11" s="3">
         <v>17199</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20"/>
+        <v>85995</v>
+      </c>
+      <c r="G11" s="21"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>17199</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20"/>
+        <v>343980</v>
+      </c>
+      <c r="G12" s="21"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1188,38 +1196,34 @@
       <c r="D13" s="3">
         <v>20389</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>101945</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="21"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>20389</v>
       </c>
-      <c r="E14" s="3">
-        <v>25</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>509725</v>
-      </c>
-      <c r="G14" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="21"/>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1233,12 +1237,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="21"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1250,12 +1254,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1269,12 +1273,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1286,12 +1290,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="21"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1305,12 +1309,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="21"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1322,13 +1326,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="N20" s="15"/>
       <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1342,12 +1346,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1359,12 +1363,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="21"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1373,19 +1377,17 @@
       <c r="D23" s="3">
         <v>15250</v>
       </c>
-      <c r="E23" s="3">
-        <v>10</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>152500</v>
-      </c>
-      <c r="G23" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="21"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1393,18 +1395,18 @@
         <v>15250</v>
       </c>
       <c r="E24" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>305000</v>
-      </c>
-      <c r="G24" s="20"/>
+        <v>457500</v>
+      </c>
+      <c r="G24" s="21"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1414,18 +1416,18 @@
         <v>12870</v>
       </c>
       <c r="E25" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>257400</v>
-      </c>
-      <c r="G25" s="20"/>
+        <v>128700</v>
+      </c>
+      <c r="G25" s="21"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1433,18 +1435,18 @@
         <v>12870</v>
       </c>
       <c r="E26" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>386100</v>
-      </c>
-      <c r="G26" s="20"/>
+        <v>193050</v>
+      </c>
+      <c r="G26" s="21"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1458,309 +1460,331 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="21"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
-        <v>16190</v>
+        <v>17540</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="42">
-        <v>8</v>
+    <row r="29" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
+        <v>17540</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>175400</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3">
+        <v>17540</v>
+      </c>
+      <c r="E30" s="3">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>877000</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="25">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
         <v>22770</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E31" s="3">
         <v>5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>113850</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="5" t="s">
+      <c r="G31" s="21"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D32" s="3">
         <v>22770</v>
       </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
-        <v>113850</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D31" s="3">
-        <v>24570</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
-        <v>49140</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="1:20" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3">
-        <v>24570</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="0"/>
-        <v>49140</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D33" s="3">
         <v>24570</v>
       </c>
       <c r="E33" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>147420</v>
-      </c>
-      <c r="G33" s="20"/>
+        <v>24570</v>
+      </c>
+      <c r="G33" s="21"/>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21" t="s">
-        <v>25</v>
-      </c>
+    <row r="34" spans="1:14" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>19540</v>
+        <v>24570</v>
       </c>
       <c r="E34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>97700</v>
-      </c>
-      <c r="G34" s="20"/>
+        <v>98280</v>
+      </c>
+      <c r="G34" s="21"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="38"/>
+    <row r="35" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19540</v>
-      </c>
-      <c r="E35" s="3">
-        <v>15</v>
-      </c>
+        <v>24570</v>
+      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>293100</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="M35" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G35" s="21"/>
       <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21" t="s">
-        <v>16</v>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>38990</v>
+        <v>19540</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="20"/>
+      <c r="G36" s="21"/>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3">
+        <v>19540</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="M37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3">
+        <v>38990</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D39" s="3">
         <v>38990</v>
-      </c>
-      <c r="E37" s="3">
-        <v>3</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="0"/>
-        <v>116970</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="3">
-        <v>33670</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="0"/>
-        <v>168350</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>33670</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="M39" s="19"/>
+      <c r="G39" s="21"/>
       <c r="N39" s="15"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="9">
-        <f>SUM(E7:E39)</f>
-        <v>178</v>
-      </c>
-      <c r="F40" s="11">
-        <f>SUM(F7:F39)</f>
-        <v>3082790</v>
-      </c>
-      <c r="G40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3">
+        <v>33670</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="21"/>
       <c r="M40" s="19"/>
       <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="12">
-        <v>0</v>
-      </c>
-      <c r="G41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3">
+        <v>33670</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="21"/>
       <c r="M41" s="19"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23" t="s">
+    <row r="42" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="9">
+        <f>SUM(E7:E41)</f>
+        <v>150</v>
+      </c>
+      <c r="F42" s="11">
+        <f>SUM(F7:F41)</f>
+        <v>2498325</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="13">
-        <f>F40-F41</f>
-        <v>3082790</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="N42" s="15"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="N43" s="15"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="13">
+        <f>F42-F43</f>
+        <v>2498325</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
@@ -1810,34 +1834,41 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
     </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:A43"/>
-    <mergeCell ref="B34:B35"/>
+  <mergeCells count="27">
+    <mergeCell ref="G1:G44"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A1:A45"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G1:G42"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -576,82 +576,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,11 +988,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1004,25 +1004,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1033,23 +1033,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44754</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+        <v>44756</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1176,11 +1176,11 @@
         <v>17199</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>343980</v>
+        <v>257985</v>
       </c>
       <c r="G12" s="21"/>
       <c r="N12" s="15"/>
@@ -1196,27 +1196,31 @@
       <c r="D13" s="3">
         <v>20389</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101945</v>
       </c>
       <c r="G13" s="21"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>20389</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>203890</v>
       </c>
       <c r="G14" s="21"/>
       <c r="N14" s="15"/>
@@ -1242,7 +1246,7 @@
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1282,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1314,7 +1318,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1355,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1391,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1410,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1415,38 +1419,34 @@
       <c r="D25" s="3">
         <v>12870</v>
       </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>128700</v>
+        <v>0</v>
       </c>
       <c r="G25" s="21"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3">
         <v>12870</v>
       </c>
-      <c r="E26" s="3">
-        <v>15</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>193050</v>
+        <v>0</v>
       </c>
       <c r="G26" s="21"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="29" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="43" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1491,38 +1491,34 @@
       <c r="D29" s="3">
         <v>17540</v>
       </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>175400</v>
+        <v>0</v>
       </c>
       <c r="G29" s="21"/>
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="3">
         <v>17540</v>
       </c>
-      <c r="E30" s="3">
-        <v>50</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>877000</v>
+        <v>0</v>
       </c>
       <c r="G30" s="21"/>
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
-      <c r="B31" s="25">
+      <c r="B31" s="43">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1532,28 +1528,30 @@
         <v>22770</v>
       </c>
       <c r="E31" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>113850</v>
+        <v>45540</v>
       </c>
       <c r="G31" s="21"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>22770</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68310</v>
       </c>
       <c r="G32" s="21"/>
       <c r="N32" s="15"/>
@@ -1569,38 +1567,34 @@
       <c r="D33" s="3">
         <v>24570</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>24570</v>
+        <v>0</v>
       </c>
       <c r="G33" s="21"/>
       <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>24570</v>
       </c>
-      <c r="E34" s="3">
-        <v>4</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>98280</v>
+        <v>0</v>
       </c>
       <c r="G34" s="21"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1636,7 +1630,7 @@
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1675,7 +1669,7 @@
     </row>
     <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1706,7 @@
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="27"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1730,18 +1724,18 @@
     </row>
     <row r="42" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
+      <c r="B42" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="9">
         <f>SUM(E7:E41)</f>
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="F42" s="11">
         <f>SUM(F7:F41)</f>
-        <v>2498325</v>
+        <v>1221165</v>
       </c>
       <c r="G42" s="21"/>
       <c r="M42" s="19"/>
@@ -1749,12 +1743,12 @@
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="12">
         <v>0</v>
       </c>
@@ -1764,15 +1758,15 @@
     </row>
     <row r="44" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="13">
         <f>F42-F43</f>
-        <v>2498325</v>
+        <v>1221165</v>
       </c>
       <c r="G44" s="21"/>
       <c r="N44" s="15"/>
@@ -1842,6 +1836,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:A45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="G1:G44"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B44:E44"/>
@@ -1857,18 +1863,6 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A1:A45"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Total=</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Narzo50i</t>
-  </si>
-  <si>
     <t>Advance</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>C35(6+128)</t>
+  </si>
+  <si>
+    <t>9 Pro</t>
+  </si>
+  <si>
+    <t>9 Pro+</t>
   </si>
 </sst>
 </file>
@@ -561,12 +564,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,6 +579,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,9 +639,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,12 +648,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,9 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1004,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1033,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44756</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+        <v>44760</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1086,7 +1089,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F41" si="0">E7*D7</f>
+        <f t="shared" ref="F7:F43" si="0">E7*D7</f>
         <v>0</v>
       </c>
       <c r="G7" s="21"/>
@@ -1094,7 +1097,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1151,7 @@
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -1156,39 +1159,35 @@
       <c r="D11" s="3">
         <v>17199</v>
       </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>85995</v>
+        <v>0</v>
       </c>
       <c r="G11" s="21"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>17199</v>
       </c>
-      <c r="E12" s="3">
-        <v>15</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>257985</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>3</v>
@@ -1196,45 +1195,41 @@
       <c r="D13" s="3">
         <v>20389</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>101945</v>
+        <v>0</v>
       </c>
       <c r="G13" s="21"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>20389</v>
       </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>203890</v>
+        <v>0</v>
       </c>
       <c r="G14" s="21"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>10440</v>
+        <v>10510</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2">
@@ -1244,14 +1239,14 @@
       <c r="G15" s="21"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>10440</v>
+        <v>10510</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2">
@@ -1264,13 +1259,13 @@
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>10510</v>
+        <v>11650</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2">
@@ -1282,12 +1277,12 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>10510</v>
+        <v>11650</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2">
@@ -1296,17 +1291,18 @@
       </c>
       <c r="G18" s="21"/>
       <c r="N18" s="15"/>
+      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3">
-        <v>11650</v>
+        <v>12660</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2">
@@ -1318,12 +1314,12 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>11650</v>
+        <v>12660</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2">
@@ -1332,18 +1328,17 @@
       </c>
       <c r="G20" s="21"/>
       <c r="N20" s="15"/>
-      <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>12660</v>
+        <v>15250</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2">
@@ -1355,12 +1350,12 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>12660</v>
+        <v>15250</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2">
@@ -1372,14 +1367,14 @@
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
-        <v>14</v>
+      <c r="B23" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15250</v>
+        <v>12870</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2">
@@ -1391,33 +1386,31 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3">
-        <v>15250</v>
-      </c>
-      <c r="E24" s="3">
-        <v>30</v>
-      </c>
+        <v>12870</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>457500</v>
+        <v>0</v>
       </c>
       <c r="G24" s="21"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="43" t="s">
-        <v>26</v>
+      <c r="B25" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>12870</v>
+        <v>16190</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2">
@@ -1427,14 +1420,14 @@
       <c r="G25" s="21"/>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3">
-        <v>12870</v>
+        <v>17540</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2">
@@ -1444,28 +1437,30 @@
       <c r="G26" s="21"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="43" t="s">
-        <v>28</v>
+      <c r="B27" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>16190</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>17540</v>
+      </c>
+      <c r="E27" s="3">
+        <v>20</v>
+      </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350800</v>
       </c>
       <c r="G27" s="21"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1480,16 +1475,16 @@
       <c r="G28" s="21"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="43" t="s">
-        <v>36</v>
+      <c r="B29" s="25">
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>17540</v>
+        <v>22770</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2">
@@ -1499,14 +1494,14 @@
       <c r="G29" s="21"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:20" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3">
-        <v>17540</v>
+        <v>22770</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2">
@@ -1516,53 +1511,49 @@
       <c r="G30" s="21"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
-      <c r="B31" s="43">
-        <v>8</v>
+      <c r="B31" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3">
-        <v>22770</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
+        <v>24570</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>45540</v>
+        <v>0</v>
       </c>
       <c r="G31" s="21"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="44"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3">
-        <v>22770</v>
+        <v>24570</v>
       </c>
       <c r="E32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>68310</v>
+        <v>122850</v>
       </c>
       <c r="G32" s="21"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="B33" s="23"/>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3">
         <v>24570</v>
@@ -1575,14 +1566,16 @@
       <c r="G33" s="21"/>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="1:14" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>24570</v>
+        <v>19540</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2">
@@ -1592,14 +1585,14 @@
       <c r="G34" s="21"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D35" s="3">
-        <v>24570</v>
+        <v>19540</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2">
@@ -1607,18 +1600,21 @@
         <v>0</v>
       </c>
       <c r="G35" s="21"/>
+      <c r="M35" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="22" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3">
-        <v>19540</v>
+        <v>29060</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2">
@@ -1628,14 +1624,14 @@
       <c r="G36" s="21"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="39"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>19540</v>
+        <v>29060</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2">
@@ -1643,21 +1639,18 @@
         <v>0</v>
       </c>
       <c r="G37" s="21"/>
-      <c r="M37" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="22" t="s">
-        <v>16</v>
+      <c r="B38" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3">
-        <v>38990</v>
+        <v>36280</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2">
@@ -1667,14 +1660,14 @@
       <c r="G38" s="21"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>38990</v>
+        <v>36280</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2">
@@ -1687,13 +1680,13 @@
     <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3">
-        <v>33670</v>
+        <v>38990</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2">
@@ -1701,17 +1694,16 @@
         <v>0</v>
       </c>
       <c r="G40" s="21"/>
-      <c r="M40" s="19"/>
       <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D41" s="3">
-        <v>33670</v>
+        <v>38990</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2">
@@ -1719,72 +1711,103 @@
         <v>0</v>
       </c>
       <c r="G41" s="21"/>
-      <c r="M41" s="19"/>
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="9">
-        <f>SUM(E7:E41)</f>
-        <v>70</v>
-      </c>
-      <c r="F42" s="11">
-        <f>SUM(F7:F41)</f>
-        <v>1221165</v>
+      <c r="B42" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3">
+        <v>33670</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G42" s="21"/>
-      <c r="M42" s="19"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="12">
+      <c r="B43" s="27"/>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>33670</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="M43" s="19"/>
+      <c r="M43" s="18"/>
       <c r="N43" s="15"/>
     </row>
-    <row r="44" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="9">
+        <f>SUM(E7:E43)</f>
+        <v>25</v>
+      </c>
+      <c r="F44" s="11">
+        <f>SUM(F7:F43)</f>
+        <v>473650</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="15"/>
+    </row>
+    <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="13">
-        <f>F42-F43</f>
-        <v>1221165</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="N44" s="15"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="N45" s="15"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="13">
+        <f>F44-F45</f>
+        <v>473650</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
@@ -1834,35 +1857,42 @@
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
     </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:A45"/>
+  <mergeCells count="28">
+    <mergeCell ref="G1:G46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G1:G44"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B43:E43"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,82 +579,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,7 +965,7 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44760</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+        <v>44761</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1386,7 +1386,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1422,7 +1422,7 @@
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1449,18 +1449,18 @@
         <v>17540</v>
       </c>
       <c r="E27" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>350800</v>
+        <v>175400</v>
       </c>
       <c r="G27" s="21"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="25">
+      <c r="B29" s="43">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1496,7 +1496,7 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1532,26 +1532,24 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>122850</v>
+        <v>0</v>
       </c>
       <c r="G32" s="21"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1587,7 +1585,7 @@
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1624,7 @@
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1643,7 +1641,7 @@
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1662,7 +1660,7 @@
     </row>
     <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1698,7 +1696,7 @@
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1735,7 +1733,7 @@
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1753,18 +1751,18 @@
     </row>
     <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
+      <c r="B44" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>473650</v>
+        <v>175400</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1772,12 +1770,12 @@
     </row>
     <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="12">
         <v>0</v>
       </c>
@@ -1787,15 +1785,15 @@
     </row>
     <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>473650</v>
+        <v>175400</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1865,6 +1863,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1880,19 +1891,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,6 +579,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,9 +639,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,12 +648,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,9 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,7 +965,7 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44761</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+        <v>44762</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="3">
-        <v>12660</v>
+        <v>12970</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2">
@@ -1314,17 +1314,19 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>12660</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>12970</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>129700</v>
       </c>
       <c r="G20" s="21"/>
       <c r="N20" s="15"/>
@@ -1338,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>15250</v>
+        <v>12970</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2">
@@ -1350,7 +1352,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1367,43 +1369,47 @@
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12870</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>13330</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>266600</v>
       </c>
       <c r="G23" s="21"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3">
-        <v>12870</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>13330</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133300</v>
       </c>
       <c r="G24" s="21"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1422,24 +1428,26 @@
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="3">
-        <v>17540</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>16190</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80950</v>
       </c>
       <c r="G26" s="21"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1460,7 +1468,7 @@
     </row>
     <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1485,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="43">
+      <c r="B29" s="25">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1496,7 +1504,7 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1540,7 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1557,7 @@
     </row>
     <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="39"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1573,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>19540</v>
+        <v>20085</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2">
@@ -1585,12 +1593,12 @@
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="3">
-        <v>19540</v>
+        <v>20085</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2">
@@ -1624,7 +1632,7 @@
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +1649,7 @@
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1660,17 +1668,19 @@
     </row>
     <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="3">
         <v>36280</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3">
+        <v>5</v>
+      </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>181400</v>
       </c>
       <c r="G39" s="21"/>
       <c r="N39" s="15"/>
@@ -1696,7 +1706,7 @@
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="39"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1733,7 +1743,7 @@
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1751,18 +1761,18 @@
     </row>
     <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>175400</v>
+        <v>967350</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1770,12 +1780,12 @@
     </row>
     <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="12">
         <v>0</v>
       </c>
@@ -1785,15 +1795,15 @@
     </row>
     <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>175400</v>
+        <v>967350</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1863,19 +1873,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1891,6 +1888,19 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,82 +579,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,7 +965,7 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44762</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+        <v>44763</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1322,11 +1322,11 @@
         <v>12970</v>
       </c>
       <c r="E20" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>129700</v>
+        <v>64850</v>
       </c>
       <c r="G20" s="21"/>
       <c r="N20" s="15"/>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1379,37 +1379,35 @@
         <v>13330</v>
       </c>
       <c r="E23" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>266600</v>
+        <v>133300</v>
       </c>
       <c r="G23" s="21"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>13330</v>
       </c>
-      <c r="E24" s="3">
-        <v>10</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>133300</v>
+        <v>0</v>
       </c>
       <c r="G24" s="21"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1428,7 +1426,7 @@
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1436,18 +1434,18 @@
         <v>16190</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>80950</v>
+        <v>161900</v>
       </c>
       <c r="G26" s="21"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1456,19 +1454,17 @@
       <c r="D27" s="3">
         <v>17540</v>
       </c>
-      <c r="E27" s="3">
-        <v>10</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>175400</v>
+        <v>0</v>
       </c>
       <c r="G27" s="21"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1481,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="25">
+      <c r="B29" s="43">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1504,7 +1500,7 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1540,7 +1536,7 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1557,7 +1553,7 @@
     </row>
     <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1589,7 @@
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
@@ -1632,7 +1628,7 @@
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1645,7 @@
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1668,19 +1664,17 @@
     </row>
     <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="3">
         <v>36280</v>
       </c>
-      <c r="E39" s="3">
-        <v>5</v>
-      </c>
+      <c r="E39" s="3"/>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>181400</v>
+        <v>0</v>
       </c>
       <c r="G39" s="21"/>
       <c r="N39" s="15"/>
@@ -1706,7 +1700,7 @@
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1743,7 +1737,7 @@
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1761,18 +1755,18 @@
     </row>
     <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
+      <c r="B44" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>967350</v>
+        <v>360050</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1780,12 +1774,12 @@
     </row>
     <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="12">
         <v>0</v>
       </c>
@@ -1795,15 +1789,15 @@
     </row>
     <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>967350</v>
+        <v>360050</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1873,6 +1867,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1888,19 +1895,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -965,7 +965,7 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
@@ -1322,11 +1322,11 @@
         <v>12970</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>64850</v>
+        <v>259400</v>
       </c>
       <c r="G20" s="21"/>
       <c r="N20" s="15"/>
@@ -1378,12 +1378,10 @@
       <c r="D23" s="3">
         <v>13330</v>
       </c>
-      <c r="E23" s="3">
-        <v>10</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>133300</v>
+        <v>0</v>
       </c>
       <c r="G23" s="21"/>
       <c r="N23" s="15"/>
@@ -1416,10 +1414,12 @@
       <c r="D25" s="3">
         <v>16190</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>161900</v>
       </c>
       <c r="G25" s="21"/>
       <c r="N25" s="15"/>
@@ -1434,11 +1434,11 @@
         <v>16190</v>
       </c>
       <c r="E26" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>161900</v>
+        <v>404750</v>
       </c>
       <c r="G26" s="21"/>
       <c r="N26" s="15"/>
@@ -1543,10 +1543,12 @@
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>122850</v>
       </c>
       <c r="G32" s="21"/>
       <c r="N32" s="15"/>
@@ -1635,10 +1637,12 @@
       <c r="D37" s="3">
         <v>29060</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58120</v>
       </c>
       <c r="G37" s="21"/>
       <c r="N37" s="15"/>
@@ -1671,10 +1675,12 @@
       <c r="D39" s="3">
         <v>36280</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36280</v>
       </c>
       <c r="G39" s="21"/>
       <c r="N39" s="15"/>
@@ -1762,11 +1768,11 @@
       <c r="D44" s="47"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>360050</v>
+        <v>1043300</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1797,7 +1803,7 @@
       <c r="E46" s="26"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>360050</v>
+        <v>1043300</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,6 +579,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,9 +639,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,12 +648,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,9 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S48" sqref="S47:S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44767</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+        <v>44769</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1085,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="3">
-        <v>9280</v>
+        <v>10290</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
@@ -1097,12 +1097,12 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9280</v>
+        <v>10290</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2">
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>10510</v>
+        <v>12070</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2">
@@ -1241,12 +1241,12 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>10510</v>
+        <v>12070</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>11650</v>
+        <v>12990</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2">
@@ -1277,17 +1277,19 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>11650</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>12990</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64950</v>
       </c>
       <c r="G18" s="21"/>
       <c r="N18" s="15"/>
@@ -1314,19 +1316,17 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12970</v>
       </c>
-      <c r="E20" s="3">
-        <v>20</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>259400</v>
+        <v>0</v>
       </c>
       <c r="G20" s="21"/>
       <c r="N20" s="15"/>
@@ -1352,24 +1352,26 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>15250</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>15</v>
+      </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>228750</v>
       </c>
       <c r="G22" s="21"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1378,17 +1380,19 @@
       <c r="D23" s="3">
         <v>13330</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133300</v>
       </c>
       <c r="G23" s="21"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1409,7 @@
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1414,19 +1418,17 @@
       <c r="D25" s="3">
         <v>16190</v>
       </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>161900</v>
+        <v>0</v>
       </c>
       <c r="G25" s="21"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1434,18 +1436,18 @@
         <v>16190</v>
       </c>
       <c r="E26" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>404750</v>
+        <v>323800</v>
       </c>
       <c r="G26" s="21"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1464,7 +1466,7 @@
     </row>
     <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1483,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="43">
+      <c r="B29" s="25">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1500,7 +1502,7 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1536,26 +1538,24 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>122850</v>
+        <v>0</v>
       </c>
       <c r="G32" s="21"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="39"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
@@ -1630,26 +1630,24 @@
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="3">
         <v>29060</v>
       </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>58120</v>
+        <v>0</v>
       </c>
       <c r="G37" s="21"/>
       <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1668,19 +1666,17 @@
     </row>
     <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="3">
         <v>36280</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
+      <c r="E39" s="3"/>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>36280</v>
+        <v>0</v>
       </c>
       <c r="G39" s="21"/>
       <c r="N39" s="15"/>
@@ -1706,7 +1702,7 @@
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="39"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1743,7 +1739,7 @@
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1761,18 +1757,18 @@
     </row>
     <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>1043300</v>
+        <v>750800</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1780,12 +1776,12 @@
     </row>
     <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="12">
         <v>0</v>
       </c>
@@ -1795,15 +1791,15 @@
     </row>
     <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>1043300</v>
+        <v>750800</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1873,19 +1869,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1901,6 +1884,19 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,82 +579,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S48" sqref="S47:S48"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44769</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+        <v>44770</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1277,19 +1277,17 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>12990</v>
       </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>64950</v>
+        <v>0</v>
       </c>
       <c r="G18" s="21"/>
       <c r="N18" s="15"/>
@@ -1316,7 +1314,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1350,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1360,18 +1358,18 @@
         <v>15250</v>
       </c>
       <c r="E22" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>228750</v>
+        <v>152500</v>
       </c>
       <c r="G22" s="21"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1380,19 +1378,17 @@
       <c r="D23" s="3">
         <v>13330</v>
       </c>
-      <c r="E23" s="3">
-        <v>10</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>133300</v>
+        <v>0</v>
       </c>
       <c r="G23" s="21"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1409,7 +1405,7 @@
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1428,26 +1424,24 @@
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="3">
         <v>16190</v>
       </c>
-      <c r="E26" s="3">
-        <v>20</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>323800</v>
+        <v>0</v>
       </c>
       <c r="G26" s="21"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1466,7 +1460,7 @@
     </row>
     <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1477,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="25">
+      <c r="B29" s="43">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1502,7 +1496,7 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1538,7 +1532,7 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1549,7 @@
     </row>
     <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1585,7 @@
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1624,7 @@
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1641,7 @@
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1666,7 +1660,7 @@
     </row>
     <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1696,7 @@
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1739,7 +1733,7 @@
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1757,18 +1751,18 @@
     </row>
     <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
+      <c r="B44" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>750800</v>
+        <v>152500</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1776,12 +1770,12 @@
     </row>
     <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="12">
         <v>0</v>
       </c>
@@ -1791,15 +1785,15 @@
     </row>
     <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>750800</v>
+        <v>152500</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1869,6 +1863,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1884,19 +1891,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,6 +579,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,9 +639,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,12 +648,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,9 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44770</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+        <v>44774</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1097,17 +1097,19 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>10290</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205800</v>
       </c>
       <c r="G8" s="21"/>
       <c r="N8" s="15"/>
@@ -1133,7 +1135,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1169,17 +1171,19 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>17199</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>171990</v>
       </c>
       <c r="G12" s="21"/>
       <c r="N12" s="15"/>
@@ -1205,7 +1209,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1245,7 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1281,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1304,27 +1308,31 @@
       <c r="D19" s="3">
         <v>12970</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>259400</v>
       </c>
       <c r="G19" s="21"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12970</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>259400</v>
       </c>
       <c r="G20" s="21"/>
       <c r="N20" s="15"/>
@@ -1350,7 +1358,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1358,18 +1366,18 @@
         <v>15250</v>
       </c>
       <c r="E22" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>152500</v>
+        <v>610000</v>
       </c>
       <c r="G22" s="21"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1378,17 +1386,19 @@
       <c r="D23" s="3">
         <v>13330</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>266600</v>
       </c>
       <c r="G23" s="21"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1415,7 @@
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1414,17 +1424,19 @@
       <c r="D25" s="3">
         <v>16190</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>161900</v>
       </c>
       <c r="G25" s="21"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1441,7 +1453,7 @@
     </row>
     <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1460,7 +1472,7 @@
     </row>
     <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1489,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="43">
+      <c r="B29" s="25">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1496,17 +1508,19 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3">
         <v>22770</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>113850</v>
       </c>
       <c r="G30" s="21"/>
       <c r="N30" s="15"/>
@@ -1532,24 +1546,26 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>245700</v>
       </c>
       <c r="G32" s="21"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="39"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1585,7 +1601,7 @@
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1640,7 @@
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +1657,7 @@
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1660,7 +1676,7 @@
     </row>
     <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1696,17 +1712,19 @@
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="39"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="3">
         <v>38990</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77980</v>
       </c>
       <c r="G41" s="21"/>
       <c r="N41" s="15"/>
@@ -1722,10 +1740,12 @@
       <c r="D42" s="3">
         <v>33670</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3">
+        <v>5</v>
+      </c>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>168350</v>
       </c>
       <c r="G42" s="21"/>
       <c r="M42" s="18"/>
@@ -1733,7 +1753,7 @@
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1751,18 +1771,18 @@
     </row>
     <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>152500</v>
+        <v>2540970</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1770,12 +1790,12 @@
     </row>
     <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="12">
         <v>0</v>
       </c>
@@ -1785,15 +1805,15 @@
     </row>
     <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>152500</v>
+        <v>2540970</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1863,19 +1883,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1891,6 +1898,19 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,82 +579,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,7 +965,7 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44774</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+        <v>44777</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1097,19 +1097,17 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>10290</v>
       </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>205800</v>
+        <v>0</v>
       </c>
       <c r="G8" s="21"/>
       <c r="N8" s="15"/>
@@ -1135,7 +1133,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1171,19 +1169,17 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>17199</v>
       </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>171990</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21"/>
       <c r="N12" s="15"/>
@@ -1209,7 +1205,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1241,7 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1277,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1308,31 +1304,27 @@
       <c r="D19" s="3">
         <v>12970</v>
       </c>
-      <c r="E19" s="3">
-        <v>20</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>259400</v>
+        <v>0</v>
       </c>
       <c r="G19" s="21"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12970</v>
       </c>
-      <c r="E20" s="3">
-        <v>20</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>259400</v>
+        <v>0</v>
       </c>
       <c r="G20" s="21"/>
       <c r="N20" s="15"/>
@@ -1358,26 +1350,24 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>15250</v>
       </c>
-      <c r="E22" s="3">
-        <v>40</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>610000</v>
+        <v>0</v>
       </c>
       <c r="G22" s="21"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1386,19 +1376,17 @@
       <c r="D23" s="3">
         <v>13330</v>
       </c>
-      <c r="E23" s="3">
-        <v>20</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>266600</v>
+        <v>0</v>
       </c>
       <c r="G23" s="21"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1415,7 +1403,7 @@
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1424,19 +1412,17 @@
       <c r="D25" s="3">
         <v>16190</v>
       </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>161900</v>
+        <v>0</v>
       </c>
       <c r="G25" s="21"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1453,7 +1439,7 @@
     </row>
     <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1472,7 +1458,7 @@
     </row>
     <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +1475,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="25">
+      <c r="B29" s="43">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1508,19 +1494,17 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3">
         <v>22770</v>
       </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>113850</v>
+        <v>0</v>
       </c>
       <c r="G30" s="21"/>
       <c r="N30" s="15"/>
@@ -1546,26 +1530,24 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3">
-        <v>10</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>245700</v>
+        <v>0</v>
       </c>
       <c r="G32" s="21"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1601,7 +1583,7 @@
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
@@ -1640,7 +1622,7 @@
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1657,7 +1639,7 @@
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1676,7 +1658,7 @@
     </row>
     <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1712,19 +1694,17 @@
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="3">
         <v>38990</v>
       </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>77980</v>
+        <v>0</v>
       </c>
       <c r="G41" s="21"/>
       <c r="N41" s="15"/>
@@ -1740,12 +1720,10 @@
       <c r="D42" s="3">
         <v>33670</v>
       </c>
-      <c r="E42" s="3">
-        <v>5</v>
-      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>168350</v>
+        <v>0</v>
       </c>
       <c r="G42" s="21"/>
       <c r="M42" s="18"/>
@@ -1753,7 +1731,7 @@
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1771,18 +1749,18 @@
     </row>
     <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
+      <c r="B44" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>2540970</v>
+        <v>0</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1790,12 +1768,12 @@
     </row>
     <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="12">
         <v>0</v>
       </c>
@@ -1805,15 +1783,15 @@
     </row>
     <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>2540970</v>
+        <v>0</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1883,6 +1861,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1898,19 +1889,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,6 +579,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,9 +639,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,12 +648,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,9 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44777</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+        <v>44780</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1304,27 +1304,31 @@
       <c r="D19" s="3">
         <v>12970</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>259400</v>
       </c>
       <c r="G19" s="21"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>12970</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>259400</v>
       </c>
       <c r="G20" s="21"/>
       <c r="N20" s="15"/>
@@ -1350,24 +1354,26 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>15250</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>152500</v>
       </c>
       <c r="G22" s="21"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1386,7 +1392,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1409,7 @@
     </row>
     <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1422,7 +1428,7 @@
     </row>
     <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1445,7 @@
     </row>
     <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1458,7 +1464,7 @@
     </row>
     <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1475,7 +1481,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="43">
+      <c r="B29" s="25">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1494,7 +1500,7 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="39"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1583,7 +1589,7 @@
     </row>
     <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1628,7 @@
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1639,7 +1645,7 @@
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1658,7 +1664,7 @@
     </row>
     <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1700,7 @@
     </row>
     <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="39"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1749,18 +1755,18 @@
     </row>
     <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>0</v>
+        <v>671300</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1768,14 +1774,14 @@
     </row>
     <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="12">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="G45" s="21"/>
       <c r="M45" s="18"/>
@@ -1783,15 +1789,15 @@
     </row>
     <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>0</v>
+        <v>656400</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1861,19 +1867,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1889,6 +1882,19 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -964,15 +964,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44780</v>
+        <v>44783</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="44"/>
@@ -1121,12 +1121,14 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>11030</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>11610</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15</v>
+      </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>174150</v>
       </c>
       <c r="G9" s="21"/>
       <c r="N9" s="15"/>
@@ -1138,12 +1140,14 @@
         <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>11030</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>11610</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>232200</v>
       </c>
       <c r="G10" s="21"/>
       <c r="N10" s="15"/>
@@ -1157,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>17199</v>
+        <v>18619</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2">
@@ -1174,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>17199</v>
+        <v>18619</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2">
@@ -1193,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>20389</v>
+        <v>21859</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2">
@@ -1210,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="3">
-        <v>20389</v>
+        <v>21859</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2">
@@ -1304,12 +1308,10 @@
       <c r="D19" s="3">
         <v>12970</v>
       </c>
-      <c r="E19" s="3">
-        <v>20</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>259400</v>
+        <v>0</v>
       </c>
       <c r="G19" s="21"/>
       <c r="N19" s="15"/>
@@ -1323,12 +1325,10 @@
       <c r="D20" s="3">
         <v>12970</v>
       </c>
-      <c r="E20" s="3">
-        <v>20</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>259400</v>
+        <v>0</v>
       </c>
       <c r="G20" s="21"/>
       <c r="N20" s="15"/>
@@ -1342,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>12970</v>
+        <v>15250</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2">
@@ -1361,12 +1361,10 @@
       <c r="D22" s="3">
         <v>15250</v>
       </c>
-      <c r="E22" s="3">
-        <v>10</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>152500</v>
+        <v>0</v>
       </c>
       <c r="G22" s="21"/>
       <c r="N22" s="15"/>
@@ -1416,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>16190</v>
+        <v>17630</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2">
@@ -1433,12 +1431,14 @@
         <v>18</v>
       </c>
       <c r="D26" s="3">
-        <v>16190</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>17630</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10</v>
+      </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>176300</v>
       </c>
       <c r="G26" s="21"/>
       <c r="N26" s="15"/>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>17540</v>
+        <v>18970</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2">
@@ -1469,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="3">
-        <v>17540</v>
+        <v>18970</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2">
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>22770</v>
+        <v>23790</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2">
@@ -1505,12 +1505,14 @@
         <v>12</v>
       </c>
       <c r="D30" s="3">
-        <v>22770</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>23790</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71370</v>
       </c>
       <c r="G30" s="21"/>
       <c r="N30" s="15"/>
@@ -1543,10 +1545,12 @@
       <c r="D32" s="3">
         <v>24570</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>122850</v>
       </c>
       <c r="G32" s="21"/>
       <c r="N32" s="15"/>
@@ -1577,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>20085</v>
+        <v>21500</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2">
@@ -1594,12 +1598,14 @@
         <v>24</v>
       </c>
       <c r="D35" s="3">
-        <v>20085</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>21500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107500</v>
       </c>
       <c r="G35" s="21"/>
       <c r="M35" s="1" t="s">
@@ -1724,12 +1730,14 @@
         <v>11</v>
       </c>
       <c r="D42" s="3">
-        <v>33670</v>
-      </c>
-      <c r="E42" s="3"/>
+        <v>32180</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5</v>
+      </c>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160900</v>
       </c>
       <c r="G42" s="21"/>
       <c r="M42" s="18"/>
@@ -1742,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="3">
-        <v>33670</v>
+        <v>32180</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="2">
@@ -1762,11 +1770,11 @@
       <c r="D44" s="48"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>671300</v>
+        <v>1045270</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1780,9 +1788,7 @@
       <c r="C45" s="41"/>
       <c r="D45" s="41"/>
       <c r="E45" s="42"/>
-      <c r="F45" s="12">
-        <v>14900</v>
-      </c>
+      <c r="F45" s="12"/>
       <c r="G45" s="21"/>
       <c r="M45" s="18"/>
       <c r="N45" s="15"/>
@@ -1797,7 +1803,7 @@
       <c r="E46" s="30"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>656400</v>
+        <v>1045270</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Total=</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>9 Pro+</t>
+  </si>
+  <si>
+    <t>Narzo50A Prime</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -576,85 +579,88 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,16 +968,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
@@ -990,13 +996,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="21"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -1006,58 +1012,58 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44783</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="21"/>
+        <v>44787</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1073,12 +1079,12 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="22"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1089,15 +1095,15 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F43" si="0">E7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="21"/>
+        <f t="shared" ref="F7:F45" si="0">E7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="22"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1109,12 +1115,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="22"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1123,38 +1129,34 @@
       <c r="D9" s="3">
         <v>11610</v>
       </c>
-      <c r="E9" s="3">
-        <v>15</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>174150</v>
-      </c>
-      <c r="G9" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="22"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11610</v>
       </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>232200</v>
-      </c>
-      <c r="G10" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="22"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1168,29 +1170,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="21"/>
+        <v>93095</v>
+      </c>
+      <c r="G12" s="22"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1204,362 +1208,362 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>21859</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="21"/>
+        <v>109295</v>
+      </c>
+      <c r="G14" s="22"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
-        <v>20</v>
+    <row r="15" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>12070</v>
+        <v>16710</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>12070</v>
+        <v>16710</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
-        <v>15</v>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>12990</v>
+        <v>12070</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>12990</v>
+        <v>12070</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="N18" s="15"/>
-      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22" t="s">
-        <v>17</v>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>12970</v>
+        <v>12990</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="22"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>12970</v>
+        <v>12990</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="N20" s="15"/>
+      <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
-        <v>14</v>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>15250</v>
+        <v>12970</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>15250</v>
+        <v>12970</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="22"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="25" t="s">
-        <v>26</v>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
-        <v>13330</v>
+        <v>15250</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="22"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>13330</v>
+        <v>15250</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="22"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="25" t="s">
-        <v>28</v>
+    <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3">
-        <v>17630</v>
+        <v>13330</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="22"/>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
+    <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>17630</v>
-      </c>
-      <c r="E26" s="3">
-        <v>10</v>
-      </c>
+        <v>13330</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>176300</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="22"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="25" t="s">
-        <v>35</v>
+    <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="44" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>18970</v>
+        <v>17630</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="22"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
+    <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
-        <v>18970</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>17630</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="21"/>
+        <v>176300</v>
+      </c>
+      <c r="G28" s="22"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="25">
-        <v>8</v>
+    <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>23790</v>
+        <v>18970</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="22"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
+    <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3">
+        <v>18970</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="44">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
         <v>23790</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
-        <v>71370</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="3">
-        <v>24570</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="22"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="27"/>
+    <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3">
-        <v>24570</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
+        <v>23790</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>122850</v>
-      </c>
-      <c r="G32" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="22"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
+    <row r="33" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="C33" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3">
         <v>24570</v>
@@ -1569,337 +1573,377 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="21"/>
+      <c r="G33" s="22"/>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22" t="s">
-        <v>25</v>
-      </c>
+    <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>21500</v>
+        <v>24570</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="21"/>
+      <c r="G34" s="22"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
+    <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24570</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
         <v>21500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="0"/>
-        <v>107500</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="M35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" s="15"/>
-    </row>
-    <row r="36" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="3">
-        <v>29060</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="22"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+    <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D37" s="3">
-        <v>29060</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>21500</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="21"/>
+        <v>107500</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="M37" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="27" t="s">
-        <v>37</v>
+    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="3">
-        <v>36280</v>
+        <v>29060</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="21"/>
+      <c r="G38" s="22"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>36280</v>
+        <v>29060</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="21"/>
+      <c r="G39" s="22"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22" t="s">
-        <v>16</v>
+    <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D40" s="3">
-        <v>38990</v>
+        <v>36280</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="21"/>
+      <c r="G40" s="22"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>38990</v>
+        <v>36280</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="22"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22" t="s">
-        <v>23</v>
+    <row r="42" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>32180</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5</v>
-      </c>
+        <v>38990</v>
+      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>160900</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="M42" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="22"/>
       <c r="N42" s="15"/>
     </row>
-    <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="27"/>
+    <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D43" s="3">
-        <v>32180</v>
+        <v>38990</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="21"/>
-      <c r="M43" s="18"/>
+      <c r="G43" s="22"/>
       <c r="N43" s="15"/>
-    </row>
-    <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="9">
-        <f>SUM(E7:E43)</f>
-        <v>63</v>
-      </c>
-      <c r="F44" s="11">
-        <f>SUM(F7:F43)</f>
-        <v>1045270</v>
-      </c>
-      <c r="G44" s="21"/>
+      <c r="P43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3">
+        <v>32180</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>96540</v>
+      </c>
+      <c r="G44" s="22"/>
       <c r="M44" s="18"/>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="21"/>
+    <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3">
+        <v>32180</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>64360</v>
+      </c>
+      <c r="G45" s="22"/>
       <c r="M45" s="18"/>
       <c r="N45" s="15"/>
     </row>
-    <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="28" t="s">
+    <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="9">
+        <f>SUM(E7:E45)</f>
+        <v>30</v>
+      </c>
+      <c r="F46" s="11">
+        <f>SUM(F7:F45)</f>
+        <v>647090</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="22"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="13">
-        <f>F44-F45</f>
-        <v>1045270</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="N46" s="15"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="N47" s="15"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="13">
+        <f>F46-F47</f>
+        <v>647090</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="N49" s="15"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
     </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="G1:G46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B46:E46"/>
+  <mergeCells count="29">
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G1:G48"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B48:E48"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44787</v>
+        <v>44789</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="42"/>
@@ -1182,12 +1182,10 @@
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>93095</v>
+        <v>0</v>
       </c>
       <c r="G12" s="22"/>
       <c r="N12" s="15"/>
@@ -1220,12 +1218,10 @@
       <c r="D14" s="3">
         <v>21859</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>109295</v>
+        <v>0</v>
       </c>
       <c r="G14" s="22"/>
       <c r="N14" s="15"/>
@@ -1241,10 +1237,12 @@
       <c r="D15" s="3">
         <v>16710</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83550</v>
       </c>
       <c r="G15" s="22"/>
       <c r="N15" s="15"/>
@@ -1258,10 +1256,12 @@
       <c r="D16" s="3">
         <v>16710</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83550</v>
       </c>
       <c r="G16" s="22"/>
       <c r="N16" s="15"/>
@@ -1475,12 +1475,10 @@
       <c r="D28" s="3">
         <v>17630</v>
       </c>
-      <c r="E28" s="3">
-        <v>10</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>176300</v>
+        <v>0</v>
       </c>
       <c r="G28" s="22"/>
       <c r="N28" s="15"/>
@@ -1638,12 +1636,10 @@
       <c r="D37" s="3">
         <v>21500</v>
       </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>107500</v>
+        <v>0</v>
       </c>
       <c r="G37" s="22"/>
       <c r="M37" s="1" t="s">
@@ -1773,12 +1769,10 @@
       <c r="D44" s="3">
         <v>32180</v>
       </c>
-      <c r="E44" s="3">
-        <v>3</v>
-      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>0</v>
       </c>
       <c r="G44" s="22"/>
       <c r="M44" s="18"/>
@@ -1793,12 +1787,10 @@
       <c r="D45" s="3">
         <v>32180</v>
       </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="2">
         <f t="shared" si="0"/>
-        <v>64360</v>
+        <v>0</v>
       </c>
       <c r="G45" s="22"/>
       <c r="M45" s="18"/>
@@ -1813,11 +1805,11 @@
       <c r="D46" s="48"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>647090</v>
+        <v>167100</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1846,7 +1838,7 @@
       <c r="E48" s="27"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>647090</v>
+        <v>167100</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,6 +585,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +645,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,12 +654,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,9 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44789</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44794</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1237,31 +1237,27 @@
       <c r="D15" s="3">
         <v>16710</v>
       </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>83550</v>
+        <v>0</v>
       </c>
       <c r="G15" s="22"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3">
         <v>16710</v>
       </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>83550</v>
+        <v>0</v>
       </c>
       <c r="G16" s="22"/>
       <c r="N16" s="15"/>
@@ -1287,7 +1283,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1319,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1356,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1392,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1409,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1432,7 +1428,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1445,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1468,24 +1464,26 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
         <v>17630</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>40</v>
+      </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>705200</v>
       </c>
       <c r="G28" s="22"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1504,7 +1502,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1519,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="44">
+      <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1540,17 +1538,19 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118950</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1576,29 +1576,31 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>24570</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>24779</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>247790</v>
       </c>
       <c r="G34" s="22"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>24570</v>
+        <v>24779</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2">
@@ -1617,29 +1619,33 @@
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>21500</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>20249</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101245</v>
       </c>
       <c r="G36" s="22"/>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="3">
-        <v>21500</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>20249</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101245</v>
       </c>
       <c r="G37" s="22"/>
       <c r="M37" s="1" t="s">
@@ -1668,7 +1674,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1691,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1704,7 +1710,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1798,18 +1804,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="B46" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>167100</v>
+        <v>1274430</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1817,12 +1823,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1830,15 +1836,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>167100</v>
+        <v>1274430</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1908,20 +1914,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1937,6 +1929,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,82 +585,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44794</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+        <v>44795</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1428,7 +1428,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1454,36 +1454,36 @@
       <c r="D27" s="3">
         <v>17630</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>176300</v>
       </c>
       <c r="G27" s="22"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
         <v>17630</v>
       </c>
-      <c r="E28" s="3">
-        <v>40</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>705200</v>
+        <v>0</v>
       </c>
       <c r="G28" s="22"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1502,7 +1502,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="26">
+      <c r="B31" s="44">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1538,19 +1538,17 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>118950</v>
+        <v>0</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1576,7 +1574,7 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1584,18 +1582,18 @@
         <v>24779</v>
       </c>
       <c r="E34" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>247790</v>
+        <v>123895</v>
       </c>
       <c r="G34" s="22"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1633,7 +1631,7 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1672,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1691,7 +1689,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1710,7 +1708,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1746,7 +1744,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1786,7 +1784,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1804,18 +1802,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>1274430</v>
+        <v>502685</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1823,12 +1821,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1836,15 +1834,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>1274430</v>
+        <v>502685</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1914,6 +1912,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1929,20 +1941,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,6 +585,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +645,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,12 +654,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,9 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44795</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44797</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1428,7 +1428,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1454,19 +1454,17 @@
       <c r="D27" s="3">
         <v>17630</v>
       </c>
-      <c r="E27" s="3">
-        <v>10</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>176300</v>
+        <v>0</v>
       </c>
       <c r="G27" s="22"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1481,7 @@
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1502,7 +1500,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1517,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="44">
+      <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1538,17 +1536,19 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>237900</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1574,26 +1574,24 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>24779</v>
       </c>
-      <c r="E34" s="3">
-        <v>5</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>123895</v>
+        <v>0</v>
       </c>
       <c r="G34" s="22"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1619,31 +1617,27 @@
       <c r="D36" s="3">
         <v>20249</v>
       </c>
-      <c r="E36" s="3">
-        <v>5</v>
-      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>101245</v>
+        <v>0</v>
       </c>
       <c r="G36" s="22"/>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="3">
         <v>20249</v>
       </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>101245</v>
+        <v>0</v>
       </c>
       <c r="G37" s="22"/>
       <c r="M37" s="1" t="s">
@@ -1672,7 +1666,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1683,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1708,7 +1702,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1738,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1784,7 +1778,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1802,18 +1796,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="B46" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>502685</v>
+        <v>237900</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1821,12 +1815,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1834,15 +1828,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>502685</v>
+        <v>237900</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1912,20 +1906,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1941,6 +1921,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,82 +585,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44797</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+        <v>44798</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1428,7 +1428,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1464,24 +1464,26 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
         <v>17630</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>20</v>
+      </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>352600</v>
       </c>
       <c r="G28" s="22"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1500,7 +1502,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1519,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="26">
+      <c r="B31" s="44">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1536,19 +1538,17 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3">
-        <v>10</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>237900</v>
+        <v>0</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1702,7 +1702,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1796,18 +1796,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>237900</v>
+        <v>352600</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1815,12 +1815,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1828,15 +1828,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>237900</v>
+        <v>352600</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1906,6 +1906,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1921,20 +1935,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,6 +585,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +645,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,12 +654,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,9 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44798</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44803</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1428,7 +1428,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1454,36 +1454,36 @@
       <c r="D27" s="3">
         <v>17630</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>176300</v>
       </c>
       <c r="G27" s="22"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
         <v>17630</v>
       </c>
-      <c r="E28" s="3">
-        <v>20</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>352600</v>
+        <v>0</v>
       </c>
       <c r="G28" s="22"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1502,7 +1502,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="44">
+      <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1538,17 +1538,19 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118950</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1574,24 +1576,26 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>24779</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123895</v>
       </c>
       <c r="G34" s="22"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1627,7 +1631,7 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1666,7 +1670,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1687,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1702,7 +1706,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1742,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1782,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1796,18 +1800,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="B46" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
         <v>20</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>352600</v>
+        <v>419145</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1815,12 +1819,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1828,15 +1832,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>352600</v>
+        <v>419145</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1906,20 +1910,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1935,6 +1925,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,82 +585,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44803</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+        <v>44805</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,17 +1175,19 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>186190</v>
       </c>
       <c r="G12" s="22"/>
       <c r="N12" s="15"/>
@@ -1211,17 +1213,19 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>21859</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>218590</v>
       </c>
       <c r="G14" s="22"/>
       <c r="N14" s="15"/>
@@ -1247,7 +1251,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1287,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1323,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1360,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1396,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1413,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1428,7 +1432,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1449,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1454,19 +1458,17 @@
       <c r="D27" s="3">
         <v>17630</v>
       </c>
-      <c r="E27" s="3">
-        <v>10</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>176300</v>
+        <v>0</v>
       </c>
       <c r="G27" s="22"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1485,7 @@
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1502,7 +1504,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1521,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="26">
+      <c r="B31" s="44">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1538,19 +1540,17 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>118950</v>
+        <v>0</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1576,26 +1576,24 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>24779</v>
       </c>
-      <c r="E34" s="3">
-        <v>5</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>123895</v>
+        <v>0</v>
       </c>
       <c r="G34" s="22"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1631,7 +1629,7 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +1668,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1687,7 +1685,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1706,7 +1704,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1740,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1782,7 +1780,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1800,18 +1798,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
         <v>20</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>419145</v>
+        <v>404780</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1819,12 +1817,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1832,15 +1830,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>419145</v>
+        <v>404780</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1910,6 +1908,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1925,20 +1937,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,6 +585,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +645,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,12 +654,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,9 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44805</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44808</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1183,11 +1183,11 @@
         <v>18619</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>186190</v>
+        <v>93095</v>
       </c>
       <c r="G12" s="22"/>
       <c r="N12" s="15"/>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1221,11 +1221,11 @@
         <v>21859</v>
       </c>
       <c r="E14" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>218590</v>
+        <v>109295</v>
       </c>
       <c r="G14" s="22"/>
       <c r="N14" s="15"/>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1432,7 +1432,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1458,34 +1458,38 @@
       <c r="D27" s="3">
         <v>17630</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88150</v>
       </c>
       <c r="G27" s="22"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
         <v>17630</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88150</v>
       </c>
       <c r="G28" s="22"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1504,7 +1508,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1525,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="44">
+      <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1540,17 +1544,19 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>237900</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1576,24 +1582,26 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>24779</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>6</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>148674</v>
       </c>
       <c r="G34" s="22"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1629,7 +1637,7 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1668,7 +1676,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1693,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1704,7 +1712,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1748,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1780,7 +1788,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1798,18 +1806,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="B46" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>404780</v>
+        <v>765264</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1817,12 +1825,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1830,15 +1838,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>404780</v>
+        <v>765264</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1908,20 +1916,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1937,6 +1931,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,82 +585,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44808</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+        <v>44809</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,19 +1175,17 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>93095</v>
+        <v>0</v>
       </c>
       <c r="G12" s="22"/>
       <c r="N12" s="15"/>
@@ -1213,19 +1211,17 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>21859</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>109295</v>
+        <v>0</v>
       </c>
       <c r="G14" s="22"/>
       <c r="N14" s="15"/>
@@ -1251,7 +1247,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1283,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1319,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1356,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1392,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1409,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1432,7 +1428,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1445,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1458,38 +1454,34 @@
       <c r="D27" s="3">
         <v>17630</v>
       </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>88150</v>
+        <v>0</v>
       </c>
       <c r="G27" s="22"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
         <v>17630</v>
       </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>88150</v>
+        <v>0</v>
       </c>
       <c r="G28" s="22"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1508,7 +1500,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1525,7 +1517,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="26">
+      <c r="B31" s="44">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1544,7 +1536,7 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1552,11 +1544,11 @@
         <v>23790</v>
       </c>
       <c r="E32" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>237900</v>
+        <v>118950</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1582,26 +1574,24 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>24779</v>
       </c>
-      <c r="E34" s="3">
-        <v>6</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>148674</v>
+        <v>0</v>
       </c>
       <c r="G34" s="22"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1637,17 +1627,19 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="3">
         <v>20249</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101245</v>
       </c>
       <c r="G37" s="22"/>
       <c r="M37" s="1" t="s">
@@ -1676,7 +1668,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1693,7 +1685,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1712,7 +1704,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1748,17 +1740,19 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="3">
         <v>38990</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77980</v>
       </c>
       <c r="G43" s="22"/>
       <c r="N43" s="15"/>
@@ -1788,7 +1782,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1806,18 +1800,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>765264</v>
+        <v>298175</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1825,12 +1819,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1838,15 +1832,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>765264</v>
+        <v>298175</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1916,6 +1910,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1931,20 +1939,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,6 +585,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +645,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,12 +654,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,9 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44809</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44811</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1237,27 +1237,31 @@
       <c r="D15" s="3">
         <v>16710</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83550</v>
       </c>
       <c r="G15" s="22"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3">
         <v>16710</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83550</v>
       </c>
       <c r="G16" s="22"/>
       <c r="N16" s="15"/>
@@ -1283,7 +1287,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1323,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1360,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1396,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1413,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1428,7 +1432,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1449,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1464,7 +1468,7 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1485,7 @@
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1500,7 +1504,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1521,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="44">
+      <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1536,19 +1540,17 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>118950</v>
+        <v>0</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1574,7 +1576,7 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1593,7 @@
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1627,19 +1629,17 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="3">
         <v>20249</v>
       </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>101245</v>
+        <v>0</v>
       </c>
       <c r="G37" s="22"/>
       <c r="M37" s="1" t="s">
@@ -1668,7 +1668,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1704,7 +1704,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1740,19 +1740,17 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="3">
         <v>38990</v>
       </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
+      <c r="E43" s="3"/>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
-        <v>77980</v>
+        <v>0</v>
       </c>
       <c r="G43" s="22"/>
       <c r="N43" s="15"/>
@@ -1782,7 +1780,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1800,18 +1798,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="B46" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>298175</v>
+        <v>167100</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1819,12 +1817,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1832,15 +1830,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>298175</v>
+        <v>167100</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1910,20 +1908,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1939,6 +1923,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -144,7 +144,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -509,14 +509,14 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,25 +525,25 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,40 +555,94 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,70 +651,16 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44811</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+        <v>44822</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1257,11 +1257,11 @@
         <v>16710</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>83550</v>
+        <v>250650</v>
       </c>
       <c r="G16" s="22"/>
       <c r="N16" s="15"/>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1432,24 +1432,26 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3">
         <v>13330</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>40</v>
+      </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>533200</v>
       </c>
       <c r="G26" s="22"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1468,7 +1470,7 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1487,7 @@
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1504,7 +1506,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1523,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="26">
+      <c r="B31" s="44">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1540,7 +1542,7 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1578,7 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1593,17 +1595,19 @@
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
         <v>24779</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>10</v>
+      </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>247790</v>
       </c>
       <c r="G35" s="22"/>
       <c r="N35" s="15"/>
@@ -1629,7 +1633,7 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1668,7 +1672,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1689,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1704,7 +1708,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1744,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1769,10 +1773,12 @@
       <c r="D44" s="3">
         <v>32180</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96540</v>
       </c>
       <c r="G44" s="22"/>
       <c r="M44" s="18"/>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1798,18 +1804,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>167100</v>
+        <v>1211730</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1817,12 +1823,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1830,15 +1836,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>167100</v>
+        <v>1211730</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1908,6 +1914,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1923,20 +1943,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -144,7 +144,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -509,14 +509,14 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,25 +525,25 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,94 +555,40 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,16 +597,70 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44822</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44824</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1237,31 +1237,27 @@
       <c r="D15" s="3">
         <v>16710</v>
       </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>83550</v>
+        <v>0</v>
       </c>
       <c r="G15" s="22"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3">
         <v>16710</v>
       </c>
-      <c r="E16" s="3">
-        <v>15</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>250650</v>
+        <v>0</v>
       </c>
       <c r="G16" s="22"/>
       <c r="N16" s="15"/>
@@ -1287,7 +1283,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1319,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>12970</v>
+        <v>13410</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2">
@@ -1360,12 +1356,12 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>12970</v>
+        <v>13410</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2">
@@ -1396,7 +1392,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1413,14 +1409,14 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="3">
-        <v>13330</v>
+        <v>13800</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2">
@@ -1432,26 +1428,26 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>13330</v>
+        <v>13800</v>
       </c>
       <c r="E26" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>533200</v>
+        <v>966000</v>
       </c>
       <c r="G26" s="22"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1470,7 +1466,7 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1487,7 +1483,7 @@
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1506,7 +1502,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1523,7 +1519,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="44">
+      <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1542,7 +1538,7 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1574,7 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1595,19 +1591,17 @@
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
         <v>24779</v>
       </c>
-      <c r="E35" s="3">
-        <v>10</v>
-      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>247790</v>
+        <v>0</v>
       </c>
       <c r="G35" s="22"/>
       <c r="N35" s="15"/>
@@ -1633,7 +1627,7 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1666,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1683,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1708,7 +1702,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1738,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1773,12 +1767,10 @@
       <c r="D44" s="3">
         <v>32180</v>
       </c>
-      <c r="E44" s="3">
-        <v>3</v>
-      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>0</v>
       </c>
       <c r="G44" s="22"/>
       <c r="M44" s="18"/>
@@ -1786,7 +1778,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1804,18 +1796,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="B46" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>1211730</v>
+        <v>966000</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1823,12 +1815,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1836,15 +1828,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>1211730</v>
+        <v>966000</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1914,20 +1906,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1943,6 +1921,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,82 +585,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44824</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+        <v>44826</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1091,24 +1091,26 @@
         <v>11</v>
       </c>
       <c r="D7" s="3">
-        <v>10290</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>9829</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F45" si="0">E7*D7</f>
-        <v>0</v>
+        <v>98290</v>
       </c>
       <c r="G7" s="22"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10290</v>
+        <v>9829</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2">
@@ -1139,7 +1141,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1177,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1213,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1237,17 +1239,19 @@
       <c r="D15" s="3">
         <v>16710</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83550</v>
       </c>
       <c r="G15" s="22"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1287,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1323,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1360,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1396,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1413,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1428,26 +1432,24 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3">
         <v>13800</v>
       </c>
-      <c r="E26" s="3">
-        <v>70</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>966000</v>
+        <v>0</v>
       </c>
       <c r="G26" s="22"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1466,7 +1468,7 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1485,7 @@
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1502,7 +1504,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1521,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="26">
+      <c r="B31" s="44">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1538,7 +1540,7 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1574,7 +1576,7 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1593,7 @@
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1627,7 +1629,7 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1666,7 +1668,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1685,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1702,7 +1704,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1740,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1780,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1796,18 +1798,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>966000</v>
+        <v>181840</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1815,12 +1817,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1828,15 +1830,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>966000</v>
+        <v>181840</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1906,6 +1908,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1921,20 +1937,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,6 +585,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +645,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,12 +654,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,9 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44826</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44829</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1093,19 +1093,17 @@
       <c r="D7" s="3">
         <v>9829</v>
       </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F45" si="0">E7*D7</f>
-        <v>98290</v>
+        <v>0</v>
       </c>
       <c r="G7" s="22"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1129,24 +1127,26 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>11610</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>11619</v>
+      </c>
+      <c r="E9" s="3">
+        <v>35</v>
+      </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>406665</v>
       </c>
       <c r="G9" s="22"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>11610</v>
+        <v>11619</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1239,19 +1239,17 @@
       <c r="D15" s="3">
         <v>16710</v>
       </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>83550</v>
+        <v>0</v>
       </c>
       <c r="G15" s="22"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1285,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1321,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1358,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1394,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1411,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1432,7 +1430,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1447,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1468,7 +1466,7 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1483,7 @@
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1504,7 +1502,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1519,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="44">
+      <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1540,7 +1538,7 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1574,7 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1593,7 +1591,7 @@
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1629,7 +1627,7 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
@@ -1668,7 +1666,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1683,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1704,7 +1702,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1738,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1780,7 +1778,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1798,18 +1796,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="B46" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>181840</v>
+        <v>406665</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1817,12 +1815,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1830,15 +1828,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>181840</v>
+        <v>406665</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1908,20 +1906,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1937,6 +1921,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,82 +585,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44829</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+        <v>44832</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1129,29 +1129,29 @@
       <c r="D9" s="3">
         <v>11619</v>
       </c>
-      <c r="E9" s="3">
-        <v>35</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>406665</v>
+        <v>0</v>
       </c>
       <c r="G9" s="22"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11619</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58095</v>
       </c>
       <c r="G10" s="22"/>
       <c r="N10" s="15"/>
@@ -1177,17 +1177,19 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93095</v>
       </c>
       <c r="G12" s="22"/>
       <c r="N12" s="15"/>
@@ -1213,7 +1215,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1251,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1287,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1323,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1360,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1396,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1413,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1430,7 +1432,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1447,7 +1449,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1466,7 +1468,7 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1485,7 @@
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1502,7 +1504,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1521,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="26">
+      <c r="B31" s="44">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1538,17 +1540,19 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118950</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1574,7 +1578,7 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1595,7 @@
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1627,17 +1631,19 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="3">
         <v>20249</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101245</v>
       </c>
       <c r="G37" s="22"/>
       <c r="M37" s="1" t="s">
@@ -1666,7 +1672,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1689,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1702,7 +1708,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1796,18 +1802,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>406665</v>
+        <v>371385</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1815,12 +1821,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1828,15 +1834,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>406665</v>
+        <v>371385</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1906,6 +1912,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1921,20 +1941,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -585,6 +585,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +645,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,12 +654,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,9 +661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1013,25 +1013,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1042,23 +1042,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44832</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44833</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1147,11 +1147,11 @@
         <v>11619</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>58095</v>
+        <v>464760</v>
       </c>
       <c r="G10" s="22"/>
       <c r="N10" s="15"/>
@@ -1177,19 +1177,17 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>93095</v>
+        <v>0</v>
       </c>
       <c r="G12" s="22"/>
       <c r="N12" s="15"/>
@@ -1215,7 +1213,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1249,7 @@
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1285,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1321,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1358,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1394,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1411,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1432,7 +1430,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1447,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1468,7 +1466,7 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1483,7 @@
     </row>
     <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1504,7 +1502,7 @@
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1519,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="44">
+      <c r="B31" s="26">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1540,19 +1538,17 @@
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3">
         <v>23790</v>
       </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>118950</v>
+        <v>0</v>
       </c>
       <c r="G32" s="22"/>
       <c r="N32" s="15"/>
@@ -1578,7 +1574,7 @@
     </row>
     <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1595,7 +1591,7 @@
     </row>
     <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>30</v>
       </c>
@@ -1631,19 +1627,17 @@
     </row>
     <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="3">
         <v>20249</v>
       </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>101245</v>
+        <v>0</v>
       </c>
       <c r="G37" s="22"/>
       <c r="M37" s="1" t="s">
@@ -1672,7 +1666,7 @@
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1683,7 @@
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1708,7 +1702,7 @@
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1738,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
@@ -1784,7 +1778,7 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -1802,18 +1796,18 @@
     </row>
     <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="B46" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="9">
         <f>SUM(E7:E45)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F46" s="11">
         <f>SUM(F7:F45)</f>
-        <v>371385</v>
+        <v>464760</v>
       </c>
       <c r="G46" s="22"/>
       <c r="M46" s="18"/>
@@ -1821,12 +1815,12 @@
     </row>
     <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="12"/>
       <c r="G47" s="22"/>
       <c r="M47" s="18"/>
@@ -1834,15 +1828,15 @@
     </row>
     <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="13">
         <f>F46-F47</f>
-        <v>371385</v>
+        <v>464760</v>
       </c>
       <c r="G48" s="22"/>
       <c r="N48" s="15"/>
@@ -1912,20 +1906,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G48"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B48:E48"/>
@@ -1941,6 +1921,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A1:A49"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Total=</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>C35(6+128)</t>
   </si>
   <si>
     <t>9 Pro</t>
@@ -512,7 +509,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -579,88 +576,85 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -996,13 +990,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -1012,58 +1006,58 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44833</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="22"/>
+        <v>44836</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1079,12 +1073,12 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="21"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1095,15 +1089,15 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F45" si="0">E7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="22"/>
+        <f t="shared" ref="F7:F43" si="0">E7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="21"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1115,12 +1109,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="21"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1134,31 +1128,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="21"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11619</v>
       </c>
-      <c r="E10" s="3">
-        <v>40</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>464760</v>
-      </c>
-      <c r="G10" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="21"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1172,12 +1164,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="21"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1189,12 +1181,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="21"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1208,12 +1200,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="21"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1225,13 +1217,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="21"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
-        <v>38</v>
+    <row r="15" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>3</v>
@@ -1244,12 +1236,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="21"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1261,12 +1253,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="21"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1280,12 +1272,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="21"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1297,12 +1289,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="21"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1316,12 +1308,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="21"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1333,13 +1325,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="21"/>
       <c r="N20" s="15"/>
       <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1353,12 +1345,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="22"/>
+      <c r="G21" s="21"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1370,12 +1362,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="21"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1389,12 +1381,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="21"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1406,12 +1398,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="21"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1425,12 +1417,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="21"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1442,211 +1434,219 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="21"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>17630</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>16629</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="22"/>
+        <v>166290</v>
+      </c>
+      <c r="G27" s="21"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
-        <v>17630</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>16629</v>
+      </c>
+      <c r="E28" s="3">
+        <v>20</v>
+      </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="22"/>
+        <v>332580</v>
+      </c>
+      <c r="G28" s="21"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="26" t="s">
-        <v>35</v>
+    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="43">
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>18970</v>
+        <v>23790</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="21"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:20" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="27"/>
+    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3">
-        <v>18970</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>23790</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="22"/>
+        <v>118950</v>
+      </c>
+      <c r="G30" s="21"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="26">
-        <v>8</v>
+    <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3">
-        <v>23790</v>
+        <v>24570</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G31" s="21"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="27"/>
+    <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3">
-        <v>23790</v>
+        <v>24779</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="22"/>
+      <c r="G32" s="21"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="A33" s="21"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3">
-        <v>24570</v>
+        <v>24779</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="22"/>
+      <c r="G33" s="21"/>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="1:16" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
+    <row r="34" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>24779</v>
+        <v>20249</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="22"/>
+      <c r="G34" s="21"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
+    <row r="35" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D35" s="3">
-        <v>24779</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>20249</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="22"/>
+        <v>101245</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="M35" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23" t="s">
-        <v>25</v>
+    <row r="36" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3">
-        <v>20249</v>
+        <v>29060</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="22"/>
+      <c r="G36" s="21"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+    <row r="37" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>20249</v>
+        <v>29060</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="22"/>
-      <c r="M37" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G37" s="21"/>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
+    <row r="38" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
       <c r="B38" s="23" t="s">
         <v>36</v>
       </c>
@@ -1654,287 +1654,250 @@
         <v>18</v>
       </c>
       <c r="D38" s="3">
-        <v>29060</v>
+        <v>36280</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="22"/>
+      <c r="G38" s="21"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
+    <row r="39" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>29060</v>
+        <v>36280</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="22"/>
+      <c r="G39" s="21"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
-        <v>37</v>
+    <row r="40" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3">
-        <v>36280</v>
+        <v>38990</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="22"/>
+      <c r="G40" s="21"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
+    <row r="41" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D41" s="3">
-        <v>36280</v>
+        <v>38990</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="22"/>
+      <c r="G41" s="21"/>
       <c r="N41" s="15"/>
+      <c r="P41" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="42" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23" t="s">
-        <v>16</v>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D42" s="3">
-        <v>38990</v>
+        <v>32180</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="22"/>
+      <c r="G42" s="21"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D43" s="3">
-        <v>38990</v>
+        <v>32180</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="M43" s="18"/>
       <c r="N43" s="15"/>
-      <c r="P43" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="44" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="3">
-        <v>32180</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="9">
+        <f>SUM(E7:E43)</f>
+        <v>40</v>
+      </c>
+      <c r="F44" s="11">
+        <f>SUM(F7:F43)</f>
+        <v>719065</v>
+      </c>
+      <c r="G44" s="21"/>
       <c r="M44" s="18"/>
       <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="3">
-        <v>32180</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="21"/>
       <c r="M45" s="18"/>
       <c r="N45" s="15"/>
     </row>
-    <row r="46" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="9">
-        <f>SUM(E7:E45)</f>
-        <v>40</v>
-      </c>
-      <c r="F46" s="11">
-        <f>SUM(F7:F45)</f>
-        <v>464760</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="M46" s="18"/>
+    <row r="46" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="13">
+        <f>F44-F45</f>
+        <v>719065</v>
+      </c>
+      <c r="G46" s="21"/>
       <c r="N46" s="15"/>
     </row>
-    <row r="47" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="22"/>
-      <c r="M47" s="18"/>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
       <c r="N47" s="15"/>
     </row>
-    <row r="48" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="13">
-        <f>F46-F47</f>
-        <v>464760</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="N48" s="15"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="N49" s="15"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="15"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G1:G48"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A1:A49"/>
-    <mergeCell ref="B36:B37"/>
+  <mergeCells count="28">
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G1:G46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B45:E45"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -965,7 +965,7 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
@@ -1597,11 +1597,11 @@
         <v>20249</v>
       </c>
       <c r="E35" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>101245</v>
+        <v>202490</v>
       </c>
       <c r="G35" s="21"/>
       <c r="M35" s="1" t="s">
@@ -1767,11 +1767,11 @@
       <c r="D44" s="47"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>719065</v>
+        <v>820310</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1800,7 +1800,7 @@
       <c r="E46" s="26"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>719065</v>
+        <v>820310</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -965,7 +965,7 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
@@ -1212,10 +1212,12 @@
       <c r="D14" s="3">
         <v>21859</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109295</v>
       </c>
       <c r="G14" s="21"/>
       <c r="N14" s="15"/>
@@ -1448,12 +1450,10 @@
       <c r="D27" s="3">
         <v>16629</v>
       </c>
-      <c r="E27" s="3">
-        <v>10</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>166290</v>
+        <v>0</v>
       </c>
       <c r="G27" s="21"/>
       <c r="N27" s="15"/>
@@ -1505,12 +1505,10 @@
       <c r="D30" s="3">
         <v>23790</v>
       </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>118950</v>
+        <v>0</v>
       </c>
       <c r="G30" s="21"/>
       <c r="N30" s="15"/>
@@ -1579,10 +1577,12 @@
       <c r="D34" s="3">
         <v>20249</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101245</v>
       </c>
       <c r="G34" s="21"/>
       <c r="N34" s="15"/>
@@ -1596,12 +1596,10 @@
       <c r="D35" s="3">
         <v>20249</v>
       </c>
-      <c r="E35" s="3">
-        <v>10</v>
-      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>202490</v>
+        <v>0</v>
       </c>
       <c r="G35" s="21"/>
       <c r="M35" s="1" t="s">
@@ -1767,11 +1765,11 @@
       <c r="D44" s="47"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>820310</v>
+        <v>543120</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1800,7 +1798,7 @@
       <c r="E46" s="26"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>820310</v>
+        <v>543120</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,6 +579,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,9 +639,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,12 +648,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,9 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44838</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+        <v>44844</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1123,27 +1123,31 @@
       <c r="D9" s="3">
         <v>11619</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>40</v>
+      </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>464760</v>
       </c>
       <c r="G9" s="21"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11619</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>40</v>
+      </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>464760</v>
       </c>
       <c r="G10" s="21"/>
       <c r="N10" s="15"/>
@@ -1169,17 +1173,19 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93095</v>
       </c>
       <c r="G12" s="21"/>
       <c r="N12" s="15"/>
@@ -1205,7 +1211,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1249,7 @@
     </row>
     <row r="16" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +1285,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1321,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1411,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1424,7 +1430,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1441,7 +1447,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1450,36 +1456,36 @@
       <c r="D27" s="3">
         <v>16629</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>20</v>
+      </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>332580</v>
       </c>
       <c r="G27" s="21"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
         <v>16629</v>
       </c>
-      <c r="E28" s="3">
-        <v>20</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>332580</v>
+        <v>0</v>
       </c>
       <c r="G28" s="21"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="43">
+      <c r="B29" s="25">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1498,7 +1504,7 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1551,17 +1557,19 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="39"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="3">
         <v>24779</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123895</v>
       </c>
       <c r="G33" s="21"/>
       <c r="N33" s="15"/>
@@ -1589,17 +1597,19 @@
     </row>
     <row r="35" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="3">
         <v>20249</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>10</v>
+      </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>202490</v>
       </c>
       <c r="G35" s="21"/>
       <c r="M35" s="1" t="s">
@@ -1628,7 +1638,7 @@
     </row>
     <row r="37" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1655,7 @@
     </row>
     <row r="38" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1664,7 +1674,7 @@
     </row>
     <row r="39" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1700,7 +1710,7 @@
     </row>
     <row r="41" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="39"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +1750,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1758,18 +1768,18 @@
     </row>
     <row r="44" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>543120</v>
+        <v>1892120</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1777,12 +1787,12 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="12"/>
       <c r="G45" s="21"/>
       <c r="M45" s="18"/>
@@ -1790,15 +1800,15 @@
     </row>
     <row r="46" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>543120</v>
+        <v>1892120</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1868,6 +1878,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G1:G46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A1:A47"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B1:F1"/>
@@ -1882,20 +1906,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G1:G46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -579,82 +579,82 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1007,25 +1007,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44844</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+        <v>44846</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1123,31 +1123,27 @@
       <c r="D9" s="3">
         <v>11619</v>
       </c>
-      <c r="E9" s="3">
-        <v>40</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>464760</v>
+        <v>0</v>
       </c>
       <c r="G9" s="21"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11619</v>
       </c>
-      <c r="E10" s="3">
-        <v>40</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>464760</v>
+        <v>0</v>
       </c>
       <c r="G10" s="21"/>
       <c r="N10" s="15"/>
@@ -1173,19 +1169,17 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>93095</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21"/>
       <c r="N12" s="15"/>
@@ -1211,19 +1205,17 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>21859</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>109295</v>
+        <v>0</v>
       </c>
       <c r="G14" s="21"/>
       <c r="N14" s="15"/>
@@ -1249,7 +1241,7 @@
     </row>
     <row r="16" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1277,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1313,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1350,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1386,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1403,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1430,7 +1422,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1447,7 +1439,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1456,19 +1448,17 @@
       <c r="D27" s="3">
         <v>16629</v>
       </c>
-      <c r="E27" s="3">
-        <v>20</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>332580</v>
+        <v>0</v>
       </c>
       <c r="G27" s="21"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1475,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="25">
+      <c r="B29" s="43">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1504,17 +1494,19 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3">
         <v>23790</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118950</v>
       </c>
       <c r="G30" s="21"/>
       <c r="N30" s="15"/>
@@ -1540,7 +1532,7 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1557,19 +1549,17 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="3">
         <v>24779</v>
       </c>
-      <c r="E33" s="3">
-        <v>5</v>
-      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>123895</v>
+        <v>0</v>
       </c>
       <c r="G33" s="21"/>
       <c r="N33" s="15"/>
@@ -1597,7 +1587,7 @@
     </row>
     <row r="35" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
         <v>24</v>
       </c>
@@ -1605,11 +1595,11 @@
         <v>20249</v>
       </c>
       <c r="E35" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>202490</v>
+        <v>101245</v>
       </c>
       <c r="G35" s="21"/>
       <c r="M35" s="1" t="s">
@@ -1638,7 +1628,7 @@
     </row>
     <row r="37" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1655,7 +1645,7 @@
     </row>
     <row r="38" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1674,7 +1664,7 @@
     </row>
     <row r="39" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1700,7 @@
     </row>
     <row r="41" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1750,7 +1740,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1768,18 +1758,18 @@
     </row>
     <row r="44" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
+      <c r="B44" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>1892120</v>
+        <v>321440</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1787,12 +1777,12 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="12"/>
       <c r="G45" s="21"/>
       <c r="M45" s="18"/>
@@ -1800,15 +1790,15 @@
     </row>
     <row r="46" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>1892120</v>
+        <v>321440</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1878,6 +1868,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1892,20 +1896,6 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -81,9 +81,6 @@
     <t>C11(4/64)</t>
   </si>
   <si>
-    <t>C21Y(3/32)</t>
-  </si>
-  <si>
     <t>C11(2+32)</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Narzo50A Prime</t>
+  </si>
+  <si>
+    <t>C35(6+128)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -506,14 +506,14 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,25 +522,25 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,91 +552,37 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,16 +591,70 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,41 +991,41 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="21"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="N1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="21"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="21"/>
       <c r="N3" s="15"/>
     </row>
@@ -1036,23 +1036,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44846</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+        <v>44847</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="21"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="21"/>
       <c r="N5" s="15"/>
     </row>
@@ -1079,7 +1079,7 @@
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1133,17 +1133,19 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11619</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>174285</v>
       </c>
       <c r="G10" s="21"/>
       <c r="N10" s="15"/>
@@ -1151,7 +1153,7 @@
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -1169,7 +1171,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1189,7 @@
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>3</v>
@@ -1205,7 +1207,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1225,7 @@
     <row r="15" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>3</v>
@@ -1241,7 +1243,7 @@
     </row>
     <row r="16" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1259,30 +1261,32 @@
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>12070</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>18970</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13</v>
+      </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>246610</v>
       </c>
       <c r="G17" s="21"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>12070</v>
+        <v>18970</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2">
@@ -1313,7 +1317,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1354,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1390,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1403,8 +1407,8 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="43" t="s">
-        <v>26</v>
+      <c r="B25" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>18</v>
@@ -1422,7 +1426,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="44"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1439,8 +1443,8 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="43" t="s">
-        <v>28</v>
+      <c r="B27" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
@@ -1448,17 +1452,19 @@
       <c r="D27" s="3">
         <v>16629</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>166290</v>
       </c>
       <c r="G27" s="21"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1475,7 +1481,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="43">
+      <c r="B29" s="25">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1494,19 +1500,17 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3">
         <v>23790</v>
       </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>118950</v>
+        <v>0</v>
       </c>
       <c r="G30" s="21"/>
       <c r="N30" s="15"/>
@@ -1514,10 +1518,10 @@
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3">
         <v>24570</v>
@@ -1532,26 +1536,28 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3">
         <v>24779</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123895</v>
       </c>
       <c r="G32" s="21"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="39"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3">
         <v>24779</v>
@@ -1567,7 +1573,7 @@
     <row r="34" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
@@ -1587,9 +1593,9 @@
     </row>
     <row r="35" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="3">
         <v>20249</v>
@@ -1603,14 +1609,14 @@
       </c>
       <c r="G35" s="21"/>
       <c r="M35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>18</v>
@@ -1628,7 +1634,7 @@
     </row>
     <row r="37" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1645,8 +1651,8 @@
     </row>
     <row r="38" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="23" t="s">
-        <v>36</v>
+      <c r="B38" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>18</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="39" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="39"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="41" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="39"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1715,13 +1721,13 @@
       <c r="G41" s="21"/>
       <c r="N41" s="15"/>
       <c r="P41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="B42" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>11</v>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1758,18 +1764,18 @@
     </row>
     <row r="44" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>321440</v>
+        <v>913570</v>
       </c>
       <c r="G44" s="21"/>
       <c r="M44" s="18"/>
@@ -1777,12 +1783,12 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
+      <c r="B45" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="12"/>
       <c r="G45" s="21"/>
       <c r="M45" s="18"/>
@@ -1790,15 +1796,15 @@
     </row>
     <row r="46" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
-      <c r="B46" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
+      <c r="B46" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>321440</v>
+        <v>913570</v>
       </c>
       <c r="G46" s="21"/>
       <c r="N46" s="15"/>
@@ -1868,6 +1874,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G1:G46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A1:A47"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B1:F1"/>
@@ -1882,20 +1902,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G1:G46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -81,9 +81,6 @@
     <t>C11(4/64)</t>
   </si>
   <si>
-    <t>C11(2+32)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>C35(6+128)</t>
+  </si>
+  <si>
+    <t>C30(2+32)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -506,14 +506,14 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="50">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,25 +522,25 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,37 +552,94 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,70 +648,16 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -990,74 +993,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="21"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="N1" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44847</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="21"/>
-      <c r="N4" s="15"/>
+        <v>44853</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="22"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1073,48 +1076,50 @@
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="22"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
-        <v>20</v>
+    <row r="7" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>9829</v>
+        <v>9299</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F43" si="0">E7*D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+    <row r="8" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9829</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>9299</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="21"/>
+        <v>74392</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1128,32 +1133,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="22"/>
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>11619</v>
       </c>
-      <c r="E10" s="3">
-        <v>15</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>174285</v>
-      </c>
-      <c r="G10" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="22"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
-        <v>31</v>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -1166,30 +1169,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="21"/>
+        <v>93095</v>
+      </c>
+      <c r="G12" s="22"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
-        <v>32</v>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>3</v>
@@ -1202,30 +1207,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>21859</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="21"/>
+        <v>109295</v>
+      </c>
+      <c r="G14" s="22"/>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
-        <v>36</v>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>3</v>
@@ -1238,12 +1245,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1255,13 +1262,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
-        <v>37</v>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>3</v>
@@ -1269,19 +1276,17 @@
       <c r="D17" s="3">
         <v>18970</v>
       </c>
-      <c r="E17" s="3">
-        <v>13</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>246610</v>
-      </c>
-      <c r="G17" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="22"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1293,12 +1298,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1312,12 +1317,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="22"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1329,13 +1334,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="N20" s="15"/>
       <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1349,12 +1354,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1366,12 +1371,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="22"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1385,12 +1390,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="22"/>
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1402,13 +1407,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="22"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="25" t="s">
-        <v>25</v>
+      <c r="A25" s="22"/>
+      <c r="B25" s="44" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>18</v>
@@ -1421,12 +1426,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="22"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1438,13 +1443,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="25" t="s">
-        <v>27</v>
+      <c r="A27" s="22"/>
+      <c r="B27" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>3</v>
@@ -1452,19 +1457,17 @@
       <c r="D27" s="3">
         <v>16629</v>
       </c>
-      <c r="E27" s="3">
-        <v>10</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>166290</v>
-      </c>
-      <c r="G27" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="22"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1476,12 +1479,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="22"/>
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="44">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1490,38 +1493,42 @@
       <c r="D29" s="3">
         <v>23790</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="21"/>
+        <v>118950</v>
+      </c>
+      <c r="G29" s="22"/>
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3">
         <v>23790</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="21"/>
+        <v>118950</v>
+      </c>
+      <c r="G30" s="22"/>
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
-        <v>28</v>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="3">
         <v>24570</v>
@@ -1531,33 +1538,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="22"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3">
         <v>24779</v>
       </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>123895</v>
-      </c>
-      <c r="G32" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="22"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3">
         <v>24779</v>
@@ -1567,13 +1572,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="21"/>
+      <c r="G33" s="22"/>
       <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22" t="s">
-        <v>24</v>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
@@ -1581,42 +1586,38 @@
       <c r="D34" s="3">
         <v>20249</v>
       </c>
-      <c r="E34" s="3">
-        <v>5</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>101245</v>
-      </c>
-      <c r="G34" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="22"/>
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="3">
         <v>20249</v>
       </c>
-      <c r="E35" s="3">
-        <v>5</v>
-      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>101245</v>
-      </c>
-      <c r="G35" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="22"/>
       <c r="M35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22" t="s">
-        <v>34</v>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>18</v>
@@ -1629,12 +1630,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="22"/>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1646,13 +1647,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="21"/>
+      <c r="G37" s="22"/>
       <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="27" t="s">
-        <v>35</v>
+      <c r="A38" s="22"/>
+      <c r="B38" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>18</v>
@@ -1665,12 +1666,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="21"/>
+      <c r="G38" s="22"/>
       <c r="N38" s="15"/>
     </row>
     <row r="39" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1682,12 +1683,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="21"/>
+      <c r="G39" s="22"/>
       <c r="N39" s="15"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1701,12 +1702,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="21"/>
+      <c r="G40" s="22"/>
       <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1718,16 +1719,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="21"/>
+      <c r="G41" s="22"/>
       <c r="N41" s="15"/>
       <c r="P41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>11</v>
@@ -1740,13 +1741,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="21"/>
+      <c r="G42" s="22"/>
       <c r="M42" s="18"/>
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1758,12 +1759,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="21"/>
+      <c r="G43" s="22"/>
       <c r="M43" s="18"/>
       <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="46" t="s">
         <v>0</v>
       </c>
@@ -1771,46 +1772,46 @@
       <c r="D44" s="48"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>913570</v>
-      </c>
-      <c r="G44" s="21"/>
+        <v>514682</v>
+      </c>
+      <c r="G44" s="22"/>
       <c r="M44" s="18"/>
       <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="22"/>
       <c r="M45" s="18"/>
       <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>913570</v>
-      </c>
-      <c r="G46" s="21"/>
+        <v>514682</v>
+      </c>
+      <c r="G46" s="22"/>
       <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -1874,6 +1875,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="G1:G46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:E46"/>
@@ -1888,20 +1903,6 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44853</v>
+        <v>44858</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="42"/>
@@ -1108,11 +1108,11 @@
         <v>9299</v>
       </c>
       <c r="E8" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>74392</v>
+        <v>158083</v>
       </c>
       <c r="G8" s="22"/>
       <c r="N8" s="15"/>
@@ -1181,12 +1181,10 @@
       <c r="D12" s="3">
         <v>18619</v>
       </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>93095</v>
+        <v>0</v>
       </c>
       <c r="G12" s="22"/>
       <c r="N12" s="15"/>
@@ -1219,12 +1217,10 @@
       <c r="D14" s="3">
         <v>21859</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>109295</v>
+        <v>0</v>
       </c>
       <c r="G14" s="22"/>
       <c r="N14" s="15"/>
@@ -1366,10 +1362,12 @@
       <c r="D22" s="3">
         <v>13410</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>50</v>
+      </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>670500</v>
       </c>
       <c r="G22" s="22"/>
       <c r="N22" s="15"/>
@@ -1493,12 +1491,10 @@
       <c r="D29" s="3">
         <v>23790</v>
       </c>
-      <c r="E29" s="3">
-        <v>5</v>
-      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>118950</v>
+        <v>0</v>
       </c>
       <c r="G29" s="22"/>
       <c r="N29" s="15"/>
@@ -1512,12 +1508,10 @@
       <c r="D30" s="3">
         <v>23790</v>
       </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>118950</v>
+        <v>0</v>
       </c>
       <c r="G30" s="22"/>
       <c r="N30" s="15"/>
@@ -1772,11 +1766,11 @@
       <c r="D44" s="48"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>514682</v>
+        <v>828583</v>
       </c>
       <c r="G44" s="22"/>
       <c r="M44" s="18"/>
@@ -1805,7 +1799,7 @@
       <c r="E46" s="27"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>514682</v>
+        <v>828583</v>
       </c>
       <c r="G46" s="22"/>
       <c r="N46" s="15"/>

--- a/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/2022/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -582,6 +582,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,9 +642,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,12 +651,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,9 +658,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -994,11 +994,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1010,25 +1010,25 @@
     </row>
     <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="22"/>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22"/>
       <c r="N3" s="15"/>
     </row>
@@ -1039,23 +1039,23 @@
       </c>
       <c r="C4" s="6">
         <f ca="1">TODAY()</f>
-        <v>44858</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+        <v>44860</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22"/>
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="22"/>
       <c r="N5" s="15"/>
     </row>
@@ -1090,17 +1090,19 @@
       <c r="D7" s="3">
         <v>9299</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F43" si="0">E7*D7</f>
-        <v>0</v>
+        <v>18598</v>
       </c>
       <c r="G7" s="22"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1108,11 +1110,11 @@
         <v>9299</v>
       </c>
       <c r="E8" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>158083</v>
+        <v>27897</v>
       </c>
       <c r="G8" s="22"/>
       <c r="N8" s="15"/>
@@ -1138,7 +1140,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1174,7 +1176,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1212,7 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1248,7 @@
     </row>
     <row r="16" spans="1:14" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1284,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1320,7 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1357,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -1363,11 +1365,11 @@
         <v>13410</v>
       </c>
       <c r="E22" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>670500</v>
+        <v>134100</v>
       </c>
       <c r="G22" s="22"/>
       <c r="N22" s="15"/>
@@ -1393,7 +1395,7 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1410,7 +1412,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1419,17 +1421,19 @@
       <c r="D25" s="3">
         <v>13800</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69000</v>
       </c>
       <c r="G25" s="22"/>
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1446,7 +1450,7 @@
     </row>
     <row r="27" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1465,7 +1469,7 @@
     </row>
     <row r="28" spans="1:20" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +1486,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="44">
+      <c r="B29" s="26">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1501,7 +1505,7 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1537,7 +1541,7 @@
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="24"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1554,7 +1558,7 @@
     </row>
     <row r="33" spans="1:16" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="5" t="s">
         <v>28</v>
       </c>
@@ -1590,17 +1594,19 @@
     </row>
     <row r="35" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
         <v>20249</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101245</v>
       </c>
       <c r="G35" s="22"/>
       <c r="M35" s="1" t="s">
@@ -1629,7 +1635,7 @@
     </row>
     <row r="37" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="5" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1652,7 @@
     </row>
     <row r="38" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1665,7 +1671,7 @@
     </row>
     <row r="39" spans="1:16" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="40"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1701,7 +1707,7 @@
     </row>
     <row r="41" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
@@ -1741,7 +1747,7 @@
     </row>
     <row r="43" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1759,18 +1765,18 @@
     </row>
     <row r="44" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
+      <c r="B44" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="9">
         <f>SUM(E7:E43)</f>
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F44" s="11">
         <f>SUM(F7:F43)</f>
-        <v>828583</v>
+        <v>350840</v>
       </c>
       <c r="G44" s="22"/>
       <c r="M44" s="18"/>
@@ -1778,28 +1784,30 @@
     </row>
     <row r="45" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="12"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="12">
+        <v>75957</v>
+      </c>
       <c r="G45" s="22"/>
       <c r="M45" s="18"/>
       <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="13">
         <f>F44-F45</f>
-        <v>828583</v>
+        <v>274883</v>
       </c>
       <c r="G46" s="22"/>
       <c r="N46" s="15"/>
@@ -1869,6 +1877,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G1:G46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A1:A47"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B1:F1"/>
@@ -1883,20 +1905,6 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G1:G46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
